--- a/papers/coalition-journal-extension/charts/avg_avail_ws_task.xlsx
+++ b/papers/coalition-journal-extension/charts/avg_avail_ws_task.xlsx
@@ -95,154 +95,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.78023999999999993</c:v>
+                  <c:v>0.90023242751999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78275440500000004</c:v>
+                  <c:v>0.90266749801343993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78275440500000004</c:v>
+                  <c:v>0.90266749801343993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78275440500000004</c:v>
+                  <c:v>0.90266749801343993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78275440500000004</c:v>
+                  <c:v>0.90266749801343993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78326083999999996</c:v>
+                  <c:v>0.90315795397631993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78326083999999996</c:v>
+                  <c:v>0.90315795397631993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7852588425</c:v>
+                  <c:v>0.90509291550144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7852588425</c:v>
+                  <c:v>0.90509291550144</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7852588425</c:v>
+                  <c:v>0.90509291550144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7852588425</c:v>
+                  <c:v>0.90509291550144</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.78778564749999991</c:v>
+                  <c:v>0.90753999475007985</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.78778564749999991</c:v>
+                  <c:v>0.90753999475007985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79029304249999999</c:v>
+                  <c:v>0.90996827642304001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.79029304249999999</c:v>
+                  <c:v>0.90996827642304001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.79029304249999999</c:v>
+                  <c:v>0.90996827642304001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.79052969781859994</c:v>
+                  <c:v>0.91019746479302754</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.79052969781859994</c:v>
+                  <c:v>0.91019746479302754</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.7930424128186</c:v>
+                  <c:v>0.91263089860934754</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.7930424128186</c:v>
+                  <c:v>0.91263089860934754</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.7930424128186</c:v>
+                  <c:v>0.91263089860934754</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.7930424128186</c:v>
+                  <c:v>0.91263089860934754</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.7930424128186</c:v>
+                  <c:v>0.91263089860934754</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.7930424128186</c:v>
+                  <c:v>0.91263089860934754</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.79554621031860007</c:v>
+                  <c:v>0.91505569629062766</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.79554621031860007</c:v>
+                  <c:v>0.91505569629062766</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.79554621031860007</c:v>
+                  <c:v>0.91505569629062766</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.79784041499999991</c:v>
+                  <c:v>0.91727751422591997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.8003515725</c:v>
+                  <c:v>0.91970943968447993</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.8003515725</c:v>
+                  <c:v>0.91970943968447993</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.80285939749999991</c:v>
+                  <c:v>0.92213813779007991</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.80285939749999991</c:v>
+                  <c:v>0.92213813779007991</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.80285939749999991</c:v>
+                  <c:v>0.92213813779007991</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.80285939749999991</c:v>
+                  <c:v>0.92213813779007991</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.80285939749999991</c:v>
+                  <c:v>0.92213813779007991</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.80285939749999991</c:v>
+                  <c:v>0.92213813779007991</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.80285939749999991</c:v>
+                  <c:v>0.92213813779007991</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.80285939749999991</c:v>
+                  <c:v>0.92213813779007991</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.80285939749999991</c:v>
+                  <c:v>0.92213813779007991</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.80285939749999991</c:v>
+                  <c:v>0.92213813779007991</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.80285939749999991</c:v>
+                  <c:v>0.92213813779007991</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.80285939749999991</c:v>
+                  <c:v>0.92213813779007991</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.80285939749999991</c:v>
+                  <c:v>0.92213813779007991</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.80285939749999991</c:v>
+                  <c:v>0.92213813779007991</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.80285939749999991</c:v>
+                  <c:v>0.92213813779007991</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.805363045</c:v>
+                  <c:v>0.92456279020415999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.805363045</c:v>
+                  <c:v>0.92456279020415999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.805363045</c:v>
+                  <c:v>0.92456279020415999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.80566304499999997</c:v>
+                  <c:v>0.92485332460415992</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.80686866499999998</c:v>
+                  <c:v>0.9260209048819199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -426,11 +426,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="47860736"/>
-        <c:axId val="91859584"/>
+        <c:axId val="42385792"/>
+        <c:axId val="42387712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47860736"/>
+        <c:axId val="42385792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -439,7 +439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91859584"/>
+        <c:crossAx val="42387712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -447,7 +447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91859584"/>
+        <c:axId val="42387712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -460,7 +460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47860736"/>
+        <c:crossAx val="42385792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1347,11 +1347,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103384576"/>
-        <c:axId val="103386112"/>
+        <c:axId val="48719360"/>
+        <c:axId val="48720896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103384576"/>
+        <c:axId val="48719360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,7 +1360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103386112"/>
+        <c:crossAx val="48720896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1368,7 +1368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103386112"/>
+        <c:axId val="48720896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +1379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103384576"/>
+        <c:crossAx val="48719360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1764,11 +1764,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103411072"/>
-        <c:axId val="103416960"/>
+        <c:axId val="48749952"/>
+        <c:axId val="48751744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103411072"/>
+        <c:axId val="48749952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,7 +1777,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103416960"/>
+        <c:crossAx val="48751744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1785,7 +1785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103416960"/>
+        <c:axId val="48751744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1796,7 +1796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103411072"/>
+        <c:crossAx val="48749952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2204,24 +2204,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B50"/>
+      <selection sqref="A1:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.78023999999999993</v>
+        <v>0.90023242751999999</v>
       </c>
       <c r="B1">
         <v>0.999</v>
       </c>
       <c r="D1">
         <f>(A1+B1)/2</f>
-        <v>0.88961999999999997</v>
+        <v>0.94961621375999994</v>
       </c>
       <c r="E1">
         <f>B1-0.14</f>
@@ -2230,36 +2230,52 @@
       <c r="G1">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <f>((A1-0.9)*0.96)+0.9</f>
+        <v>0.90022313041919999</v>
+      </c>
+      <c r="I1">
+        <f>A1+0.12</f>
+        <v>1.0202324275199999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.78275440500000004</v>
+        <v>0.90266749801343993</v>
       </c>
       <c r="B2">
         <v>0.999</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D50" si="0">(A2+B2)/2</f>
-        <v>0.89087720250000002</v>
+        <v>0.95083374900672002</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E50" si="1">B2-0.14</f>
+        <f t="shared" ref="E2:E49" si="1">B2-0.14</f>
         <v>0.85899999999999999</v>
       </c>
       <c r="G2">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f t="shared" ref="H2:H50" si="2">((A2-0.9)*0.96)+0.9</f>
+        <v>0.90256079809290235</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I50" si="3">A2+0.12</f>
+        <v>1.02266749801344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.78275440500000004</v>
+        <v>0.90266749801343993</v>
       </c>
       <c r="B3">
         <v>0.999</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>0.89087720250000002</v>
+        <v>0.95083374900672002</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
@@ -2268,17 +2284,25 @@
       <c r="G3">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" si="2"/>
+        <v>0.90256079809290235</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="3"/>
+        <v>1.02266749801344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.78275440500000004</v>
+        <v>0.90266749801343993</v>
       </c>
       <c r="B4">
         <v>0.999</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.89087720250000002</v>
+        <v>0.95083374900672002</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
@@ -2287,17 +2311,25 @@
       <c r="G4">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.90256079809290235</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>1.02266749801344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.78275440500000004</v>
+        <v>0.90266749801343993</v>
       </c>
       <c r="B5">
         <v>0.999</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.89087720250000002</v>
+        <v>0.95083374900672002</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
@@ -2306,17 +2338,25 @@
       <c r="G5">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.90256079809290235</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>1.02266749801344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.78326083999999996</v>
+        <v>0.90315795397631993</v>
       </c>
       <c r="B6">
         <v>0.999</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.89113041999999998</v>
+        <v>0.95107897698816002</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
@@ -2325,17 +2365,25 @@
       <c r="G6">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.90303163581726709</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>1.02315795397632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.78326083999999996</v>
+        <v>0.90315795397631993</v>
       </c>
       <c r="B7">
         <v>0.999</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.89113041999999998</v>
+        <v>0.95107897698816002</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
@@ -2344,17 +2392,25 @@
       <c r="G7">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.90303163581726709</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>1.02315795397632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.7852588425</v>
+        <v>0.90509291550144</v>
       </c>
       <c r="B8">
         <v>0.999</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.89212942124999994</v>
+        <v>0.95204645775071994</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
@@ -2363,17 +2419,25 @@
       <c r="G8">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.90488919888138242</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>1.0250929155014399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.7852588425</v>
+        <v>0.90509291550144</v>
       </c>
       <c r="B9">
         <v>0.999</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.89212942124999994</v>
+        <v>0.95204645775071994</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
@@ -2382,17 +2446,25 @@
       <c r="G9">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.90488919888138242</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>1.0250929155014399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.7852588425</v>
+        <v>0.90509291550144</v>
       </c>
       <c r="B10">
         <v>0.999</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.89212942124999994</v>
+        <v>0.95204645775071994</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
@@ -2401,17 +2473,25 @@
       <c r="G10">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.90488919888138242</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>1.0250929155014399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.7852588425</v>
+        <v>0.90509291550144</v>
       </c>
       <c r="B11">
         <v>0.999</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.89212942124999994</v>
+        <v>0.95204645775071994</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
@@ -2420,17 +2500,25 @@
       <c r="G11">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.90488919888138242</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>1.0250929155014399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.78778564749999991</v>
+        <v>0.90753999475007985</v>
       </c>
       <c r="B12">
         <v>0.999</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0.89339282374999995</v>
+        <v>0.95326999737503992</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
@@ -2439,17 +2527,25 @@
       <c r="G12">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.90723839496007663</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>1.0275399947500798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.78778564749999991</v>
+        <v>0.90753999475007985</v>
       </c>
       <c r="B13">
         <v>0.999</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>0.89339282374999995</v>
+        <v>0.95326999737503992</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
@@ -2458,17 +2554,25 @@
       <c r="G13">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.90723839496007663</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>1.0275399947500798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.79029304249999999</v>
+        <v>0.90996827642304001</v>
       </c>
       <c r="B14">
         <v>0.999</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0.89464652124999999</v>
+        <v>0.95448413821152001</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
@@ -2477,17 +2581,25 @@
       <c r="G14">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.90956954536611845</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>1.02996827642304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.79029304249999999</v>
+        <v>0.90996827642304001</v>
       </c>
       <c r="B15">
         <v>0.999</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>0.89464652124999999</v>
+        <v>0.95448413821152001</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
@@ -2496,17 +2608,25 @@
       <c r="G15">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.90956954536611845</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1.02996827642304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.79029304249999999</v>
+        <v>0.90996827642304001</v>
       </c>
       <c r="B16">
         <v>0.999</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>0.89464652124999999</v>
+        <v>0.95448413821152001</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
@@ -2515,17 +2635,25 @@
       <c r="G16">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.90956954536611845</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>1.02996827642304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.79052969781859994</v>
+        <v>0.91019746479302754</v>
       </c>
       <c r="B17">
         <v>0.999</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>0.89476484890929997</v>
+        <v>0.95459873239651372</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
@@ -2534,17 +2662,25 @@
       <c r="G17">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.90978956620130647</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>1.0301974647930274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.79052969781859994</v>
+        <v>0.91019746479302754</v>
       </c>
       <c r="B18">
         <v>0.999</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>0.89476484890929997</v>
+        <v>0.95459873239651372</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
@@ -2553,17 +2689,25 @@
       <c r="G18">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.90978956620130647</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>1.0301974647930274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.7930424128186</v>
+        <v>0.91263089860934754</v>
       </c>
       <c r="B19">
         <v>0.999</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>0.89602120640930005</v>
+        <v>0.95581544930467377</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
@@ -2572,17 +2716,25 @@
       <c r="G19">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.91212566266497364</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>1.0326308986093475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.7930424128186</v>
+        <v>0.91263089860934754</v>
       </c>
       <c r="B20">
         <v>0.999</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>0.89602120640930005</v>
+        <v>0.95581544930467377</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
@@ -2591,17 +2743,25 @@
       <c r="G20">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.91212566266497364</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>1.0326308986093475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.7930424128186</v>
+        <v>0.91263089860934754</v>
       </c>
       <c r="B21">
         <v>0.999</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>0.89602120640930005</v>
+        <v>0.95581544930467377</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
@@ -2610,17 +2770,25 @@
       <c r="G21">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0.91212566266497364</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>1.0326308986093475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.7930424128186</v>
+        <v>0.91263089860934754</v>
       </c>
       <c r="B22">
         <v>0.999</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>0.89602120640930005</v>
+        <v>0.95581544930467377</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
@@ -2629,17 +2797,25 @@
       <c r="G22">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0.91212566266497364</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>1.0326308986093475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.7930424128186</v>
+        <v>0.91263089860934754</v>
       </c>
       <c r="B23">
         <v>0.999</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>0.89602120640930005</v>
+        <v>0.95581544930467377</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
@@ -2648,17 +2824,25 @@
       <c r="G23">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0.91212566266497364</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>1.0326308986093475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.7930424128186</v>
+        <v>0.91263089860934754</v>
       </c>
       <c r="B24">
         <v>0.999</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>0.89602120640930005</v>
+        <v>0.95581544930467377</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
@@ -2667,17 +2851,25 @@
       <c r="G24">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0.91212566266497364</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>1.0326308986093475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.79554621031860007</v>
+        <v>0.91505569629062766</v>
       </c>
       <c r="B25">
         <v>0.999</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>0.89727310515930003</v>
+        <v>0.95702784814531383</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
@@ -2686,17 +2878,25 @@
       <c r="G25">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0.91445346843900255</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>1.0350556962906277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.79554621031860007</v>
+        <v>0.91505569629062766</v>
       </c>
       <c r="B26">
         <v>0.999</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>0.89727310515930003</v>
+        <v>0.95702784814531383</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
@@ -2705,17 +2905,25 @@
       <c r="G26">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>0.91445346843900255</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>1.0350556962906277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.79554621031860007</v>
+        <v>0.91505569629062766</v>
       </c>
       <c r="B27">
         <v>0.999</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>0.89727310515930003</v>
+        <v>0.95702784814531383</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
@@ -2724,17 +2932,25 @@
       <c r="G27">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>0.91445346843900255</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>1.0350556962906277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.79784041499999991</v>
+        <v>0.91727751422591997</v>
       </c>
       <c r="B28">
         <v>0.999</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>0.89842020749999996</v>
+        <v>0.95813875711296004</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
@@ -2743,17 +2959,25 @@
       <c r="G28">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>0.9165864136568832</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>1.0372775142259201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.8003515725</v>
+        <v>0.91970943968447993</v>
       </c>
       <c r="B29">
         <v>0.999</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>0.89967578625</v>
+        <v>0.95935471984223997</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
@@ -2762,17 +2986,25 @@
       <c r="G29">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>0.91892106209710078</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>1.0397094396844799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.8003515725</v>
+        <v>0.91970943968447993</v>
       </c>
       <c r="B30">
         <v>0.999</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>0.89967578625</v>
+        <v>0.95935471984223997</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
@@ -2781,17 +3013,25 @@
       <c r="G30">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>0.91892106209710078</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>1.0397094396844799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.80285939749999991</v>
+        <v>0.92213813779007991</v>
       </c>
       <c r="B31">
         <v>0.999</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>0.90092969874999995</v>
+        <v>0.9605690688950399</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
@@ -2800,17 +3040,25 @@
       <c r="G31">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>0.92125261227847677</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>1.0421381377900798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.80285939749999991</v>
+        <v>0.92213813779007991</v>
       </c>
       <c r="B32">
         <v>0.999</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>0.90092969874999995</v>
+        <v>0.9605690688950399</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
@@ -2819,17 +3067,25 @@
       <c r="G32">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>0.92125261227847677</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>1.0421381377900798</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.80285939749999991</v>
+        <v>0.92213813779007991</v>
       </c>
       <c r="B33">
         <v>0.999</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>0.90092969874999995</v>
+        <v>0.9605690688950399</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
@@ -2838,17 +3094,25 @@
       <c r="G33">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>0.92125261227847677</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>1.0421381377900798</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.80285939749999991</v>
+        <v>0.92213813779007991</v>
       </c>
       <c r="B34">
         <v>0.999</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>0.90092969874999995</v>
+        <v>0.9605690688950399</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
@@ -2857,17 +3121,25 @@
       <c r="G34">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>0.92125261227847677</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>1.0421381377900798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.80285939749999991</v>
+        <v>0.92213813779007991</v>
       </c>
       <c r="B35">
         <v>0.999</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>0.90092969874999995</v>
+        <v>0.9605690688950399</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
@@ -2876,17 +3148,25 @@
       <c r="G35">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>0.92125261227847677</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>1.0421381377900798</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.80285939749999991</v>
+        <v>0.92213813779007991</v>
       </c>
       <c r="B36">
         <v>0.999</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>0.90092969874999995</v>
+        <v>0.9605690688950399</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
@@ -2895,17 +3175,25 @@
       <c r="G36">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0.92125261227847677</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>1.0421381377900798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.80285939749999991</v>
+        <v>0.92213813779007991</v>
       </c>
       <c r="B37">
         <v>0.999</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>0.90092969874999995</v>
+        <v>0.9605690688950399</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
@@ -2914,17 +3202,25 @@
       <c r="G37">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>0.92125261227847677</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>1.0421381377900798</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.80285939749999991</v>
+        <v>0.92213813779007991</v>
       </c>
       <c r="B38">
         <v>0.999</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>0.90092969874999995</v>
+        <v>0.9605690688950399</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
@@ -2933,17 +3229,25 @@
       <c r="G38">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>0.92125261227847677</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>1.0421381377900798</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.80285939749999991</v>
+        <v>0.92213813779007991</v>
       </c>
       <c r="B39">
         <v>0.999</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>0.90092969874999995</v>
+        <v>0.9605690688950399</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
@@ -2952,17 +3256,25 @@
       <c r="G39">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>0.92125261227847677</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>1.0421381377900798</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.80285939749999991</v>
+        <v>0.92213813779007991</v>
       </c>
       <c r="B40">
         <v>0.999</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>0.90092969874999995</v>
+        <v>0.9605690688950399</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
@@ -2971,17 +3283,25 @@
       <c r="G40">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>0.92125261227847677</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>1.0421381377900798</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.80285939749999991</v>
+        <v>0.92213813779007991</v>
       </c>
       <c r="B41">
         <v>0.999</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>0.90092969874999995</v>
+        <v>0.9605690688950399</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
@@ -2990,17 +3310,25 @@
       <c r="G41">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>0.92125261227847677</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>1.0421381377900798</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.80285939749999991</v>
+        <v>0.92213813779007991</v>
       </c>
       <c r="B42">
         <v>0.999</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>0.90092969874999995</v>
+        <v>0.9605690688950399</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
@@ -3009,17 +3337,25 @@
       <c r="G42">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>0.92125261227847677</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>1.0421381377900798</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.80285939749999991</v>
+        <v>0.92213813779007991</v>
       </c>
       <c r="B43">
         <v>0.999</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>0.90092969874999995</v>
+        <v>0.9605690688950399</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
@@ -3028,17 +3364,25 @@
       <c r="G43">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>0.92125261227847677</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>1.0421381377900798</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.80285939749999991</v>
+        <v>0.92213813779007991</v>
       </c>
       <c r="B44">
         <v>0.999</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>0.90092969874999995</v>
+        <v>0.9605690688950399</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
@@ -3047,17 +3391,25 @@
       <c r="G44">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>0.92125261227847677</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>1.0421381377900798</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.80285939749999991</v>
+        <v>0.92213813779007991</v>
       </c>
       <c r="B45">
         <v>0.999</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>0.90092969874999995</v>
+        <v>0.9605690688950399</v>
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
@@ -3066,17 +3418,25 @@
       <c r="G45">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>0.92125261227847677</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>1.0421381377900798</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.805363045</v>
+        <v>0.92456279020415999</v>
       </c>
       <c r="B46">
         <v>0.999</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>0.90218152250000005</v>
+        <v>0.96178139510207994</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
@@ -3085,17 +3445,25 @@
       <c r="G46">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>0.92358027859599356</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>1.0445627902041599</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.805363045</v>
+        <v>0.92456279020415999</v>
       </c>
       <c r="B47">
         <v>0.999</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>0.90218152250000005</v>
+        <v>0.96178139510207994</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
@@ -3104,17 +3472,25 @@
       <c r="G47">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>0.92358027859599356</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>1.0445627902041599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.805363045</v>
+        <v>0.92456279020415999</v>
       </c>
       <c r="B48">
         <v>0.999</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>0.90218152250000005</v>
+        <v>0.96178139510207994</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
@@ -3123,17 +3499,25 @@
       <c r="G48">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>0.92358027859599356</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>1.0445627902041599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.80566304499999997</v>
+        <v>0.92485332460415992</v>
       </c>
       <c r="B49">
         <v>0.999</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>0.90233152249999993</v>
+        <v>0.9619266623020799</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
@@ -3142,17 +3526,25 @@
       <c r="G49">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>0.92385919161999353</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>1.0448533246041598</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.80686866499999998</v>
+        <v>0.9260209048819199</v>
       </c>
       <c r="B50">
         <v>0.999</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>0.90293433249999999</v>
+        <v>0.96251045244096001</v>
       </c>
       <c r="E50">
         <f>B50-0.14</f>
@@ -3160,6 +3552,14 @@
       </c>
       <c r="G50">
         <v>0.999</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>0.92498006868664306</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>1.04602090488192</v>
       </c>
     </row>
   </sheetData>

--- a/papers/coalition-journal-extension/charts/avg_avail_ws_task.xlsx
+++ b/papers/coalition-journal-extension/charts/avg_avail_ws_task.xlsx
@@ -95,154 +95,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.90023242751999999</c:v>
+                  <c:v>0.91323242752</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90266749801343993</c:v>
+                  <c:v>0.91566749801343994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90266749801343993</c:v>
+                  <c:v>0.91566749801343994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90266749801343993</c:v>
+                  <c:v>0.91566749801343994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90266749801343993</c:v>
+                  <c:v>0.91566749801343994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90315795397631993</c:v>
+                  <c:v>0.91615795397631994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90315795397631993</c:v>
+                  <c:v>0.91615795397631994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90509291550144</c:v>
+                  <c:v>0.91809291550144001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90509291550144</c:v>
+                  <c:v>0.91809291550144001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90509291550144</c:v>
+                  <c:v>0.91809291550144001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.90509291550144</c:v>
+                  <c:v>0.91809291550144001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.90753999475007985</c:v>
+                  <c:v>0.92053999475007986</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.90753999475007985</c:v>
+                  <c:v>0.92053999475007986</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.90996827642304001</c:v>
+                  <c:v>0.92296827642304002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.90996827642304001</c:v>
+                  <c:v>0.92296827642304002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.90996827642304001</c:v>
+                  <c:v>0.92296827642304002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.91019746479302754</c:v>
+                  <c:v>0.92319746479302756</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.91019746479302754</c:v>
+                  <c:v>0.92319746479302756</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.91263089860934754</c:v>
+                  <c:v>0.92563089860934755</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.91263089860934754</c:v>
+                  <c:v>0.92563089860934755</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.91263089860934754</c:v>
+                  <c:v>0.92563089860934755</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.91263089860934754</c:v>
+                  <c:v>0.92563089860934755</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.91263089860934754</c:v>
+                  <c:v>0.92563089860934755</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91263089860934754</c:v>
+                  <c:v>0.92563089860934755</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91505569629062766</c:v>
+                  <c:v>0.92805569629062767</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.91505569629062766</c:v>
+                  <c:v>0.92805569629062767</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91505569629062766</c:v>
+                  <c:v>0.92805569629062767</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91727751422591997</c:v>
+                  <c:v>0.93027751422591998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.91970943968447993</c:v>
+                  <c:v>0.93270943968447995</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.91970943968447993</c:v>
+                  <c:v>0.93270943968447995</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.92213813779007991</c:v>
+                  <c:v>0.93513813779007993</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92213813779007991</c:v>
+                  <c:v>0.93513813779007993</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.92213813779007991</c:v>
+                  <c:v>0.93513813779007993</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.92213813779007991</c:v>
+                  <c:v>0.93513813779007993</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.92213813779007991</c:v>
+                  <c:v>0.93513813779007993</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.92213813779007991</c:v>
+                  <c:v>0.93513813779007993</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.92213813779007991</c:v>
+                  <c:v>0.93513813779007993</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.92213813779007991</c:v>
+                  <c:v>0.93513813779007993</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.92213813779007991</c:v>
+                  <c:v>0.93513813779007993</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.92213813779007991</c:v>
+                  <c:v>0.93513813779007993</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.92213813779007991</c:v>
+                  <c:v>0.93513813779007993</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.92213813779007991</c:v>
+                  <c:v>0.93513813779007993</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.92213813779007991</c:v>
+                  <c:v>0.93513813779007993</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.92213813779007991</c:v>
+                  <c:v>0.93513813779007993</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.92213813779007991</c:v>
+                  <c:v>0.93513813779007993</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.92456279020415999</c:v>
+                  <c:v>0.93756279020416</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.92456279020415999</c:v>
+                  <c:v>0.93756279020416</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.92456279020415999</c:v>
+                  <c:v>0.93756279020416</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.92485332460415992</c:v>
+                  <c:v>0.93785332460415993</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.9260209048819199</c:v>
+                  <c:v>0.93902090488191992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -426,11 +426,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42385792"/>
-        <c:axId val="42387712"/>
+        <c:axId val="111388544"/>
+        <c:axId val="111390080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42385792"/>
+        <c:axId val="111388544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -439,7 +439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42387712"/>
+        <c:crossAx val="111390080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -447,7 +447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42387712"/>
+        <c:axId val="111390080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -460,7 +460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42385792"/>
+        <c:crossAx val="111388544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1347,11 +1347,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="48719360"/>
-        <c:axId val="48720896"/>
+        <c:axId val="134281856"/>
+        <c:axId val="134291840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48719360"/>
+        <c:axId val="134281856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,7 +1360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48720896"/>
+        <c:crossAx val="134291840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1368,7 +1368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48720896"/>
+        <c:axId val="134291840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +1379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48719360"/>
+        <c:crossAx val="134281856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1764,11 +1764,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="48749952"/>
-        <c:axId val="48751744"/>
+        <c:axId val="135275264"/>
+        <c:axId val="135276800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48749952"/>
+        <c:axId val="135275264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,7 +1777,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48751744"/>
+        <c:crossAx val="135276800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1785,7 +1785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48751744"/>
+        <c:axId val="135276800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1796,7 +1796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48749952"/>
+        <c:crossAx val="135275264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2204,24 +2204,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A50"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.90023242751999999</v>
+        <v>0.91323242752</v>
       </c>
       <c r="B1">
         <v>0.999</v>
       </c>
       <c r="D1">
         <f>(A1+B1)/2</f>
-        <v>0.94961621375999994</v>
+        <v>0.95611621376</v>
       </c>
       <c r="E1">
         <f>B1-0.14</f>
@@ -2231,24 +2231,28 @@
         <v>0.999</v>
       </c>
       <c r="H1">
-        <f>((A1-0.9)*0.96)+0.9</f>
-        <v>0.90022313041919999</v>
+        <f>((A1-0.9)*0.99)+0.9</f>
+        <v>0.91310010324479995</v>
       </c>
       <c r="I1">
         <f>A1+0.12</f>
-        <v>1.0202324275199999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.03323242752</v>
+      </c>
+      <c r="K1">
+        <f>A1+0.003</f>
+        <v>0.91623242752</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.90266749801343993</v>
+        <v>0.91566749801343994</v>
       </c>
       <c r="B2">
         <v>0.999</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D50" si="0">(A2+B2)/2</f>
-        <v>0.95083374900672002</v>
+        <v>0.95733374900671997</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E49" si="1">B2-0.14</f>
@@ -2258,24 +2262,28 @@
         <v>0.999</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H50" si="2">((A2-0.9)*0.96)+0.9</f>
-        <v>0.90256079809290235</v>
+        <f t="shared" ref="H2:H50" si="2">((A2-0.9)*0.99)+0.9</f>
+        <v>0.91551082303330555</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I50" si="3">A2+0.12</f>
-        <v>1.02266749801344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0356674980134399</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K50" si="4">A2+0.003</f>
+        <v>0.91866749801343994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.90266749801343993</v>
+        <v>0.91566749801343994</v>
       </c>
       <c r="B3">
         <v>0.999</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>0.95083374900672002</v>
+        <v>0.95733374900671997</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
@@ -2286,23 +2294,27 @@
       </c>
       <c r="H3">
         <f t="shared" si="2"/>
-        <v>0.90256079809290235</v>
+        <v>0.91551082303330555</v>
       </c>
       <c r="I3">
         <f t="shared" si="3"/>
-        <v>1.02266749801344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0356674980134399</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="4"/>
+        <v>0.91866749801343994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.90266749801343993</v>
+        <v>0.91566749801343994</v>
       </c>
       <c r="B4">
         <v>0.999</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.95083374900672002</v>
+        <v>0.95733374900671997</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
@@ -2313,23 +2325,27 @@
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>0.90256079809290235</v>
+        <v>0.91551082303330555</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>1.02266749801344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0356674980134399</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>0.91866749801343994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.90266749801343993</v>
+        <v>0.91566749801343994</v>
       </c>
       <c r="B5">
         <v>0.999</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.95083374900672002</v>
+        <v>0.95733374900671997</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
@@ -2340,23 +2356,27 @@
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>0.90256079809290235</v>
+        <v>0.91551082303330555</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>1.02266749801344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0356674980134399</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>0.91866749801343994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.90315795397631993</v>
+        <v>0.91615795397631994</v>
       </c>
       <c r="B6">
         <v>0.999</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.95107897698816002</v>
+        <v>0.95757897698815997</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
@@ -2367,23 +2387,27 @@
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>0.90303163581726709</v>
+        <v>0.91599637443655679</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>1.02315795397632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0361579539763199</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>0.91915795397631994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.90315795397631993</v>
+        <v>0.91615795397631994</v>
       </c>
       <c r="B7">
         <v>0.999</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.95107897698816002</v>
+        <v>0.95757897698815997</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
@@ -2394,23 +2418,27 @@
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0.90303163581726709</v>
+        <v>0.91599637443655679</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>1.02315795397632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0361579539763199</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>0.91915795397631994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.90509291550144</v>
+        <v>0.91809291550144001</v>
       </c>
       <c r="B8">
         <v>0.999</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.95204645775071994</v>
+        <v>0.95854645775072</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
@@ -2421,23 +2449,27 @@
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>0.90488919888138242</v>
+        <v>0.91791198634642557</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>1.0250929155014399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.03809291550144</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>0.92109291550144001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.90509291550144</v>
+        <v>0.91809291550144001</v>
       </c>
       <c r="B9">
         <v>0.999</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.95204645775071994</v>
+        <v>0.95854645775072</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
@@ -2448,23 +2480,27 @@
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>0.90488919888138242</v>
+        <v>0.91791198634642557</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>1.0250929155014399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.03809291550144</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>0.92109291550144001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.90509291550144</v>
+        <v>0.91809291550144001</v>
       </c>
       <c r="B10">
         <v>0.999</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.95204645775071994</v>
+        <v>0.95854645775072</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
@@ -2475,23 +2511,27 @@
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0.90488919888138242</v>
+        <v>0.91791198634642557</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>1.0250929155014399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.03809291550144</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0.92109291550144001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.90509291550144</v>
+        <v>0.91809291550144001</v>
       </c>
       <c r="B11">
         <v>0.999</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.95204645775071994</v>
+        <v>0.95854645775072</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
@@ -2502,23 +2542,27 @@
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>0.90488919888138242</v>
+        <v>0.91791198634642557</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>1.0250929155014399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.03809291550144</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>0.92109291550144001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.90753999475007985</v>
+        <v>0.92053999475007986</v>
       </c>
       <c r="B12">
         <v>0.999</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0.95326999737503992</v>
+        <v>0.95976999737503998</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
@@ -2529,23 +2573,27 @@
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>0.90723839496007663</v>
+        <v>0.92033459480257906</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>1.0275399947500798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.04053999475008</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>0.92353999475007986</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.90753999475007985</v>
+        <v>0.92053999475007986</v>
       </c>
       <c r="B13">
         <v>0.999</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>0.95326999737503992</v>
+        <v>0.95976999737503998</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
@@ -2556,23 +2604,27 @@
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>0.90723839496007663</v>
+        <v>0.92033459480257906</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>1.0275399947500798</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.04053999475008</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>0.92353999475007986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.90996827642304001</v>
+        <v>0.92296827642304002</v>
       </c>
       <c r="B14">
         <v>0.999</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0.95448413821152001</v>
+        <v>0.96098413821152007</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
@@ -2583,23 +2635,27 @@
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0.90956954536611845</v>
+        <v>0.92273859365880961</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>1.02996827642304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0429682764230401</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0.92596827642304003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.90996827642304001</v>
+        <v>0.92296827642304002</v>
       </c>
       <c r="B15">
         <v>0.999</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>0.95448413821152001</v>
+        <v>0.96098413821152007</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
@@ -2610,23 +2666,27 @@
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>0.90956954536611845</v>
+        <v>0.92273859365880961</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>1.02996827642304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0429682764230401</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>0.92596827642304003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.90996827642304001</v>
+        <v>0.92296827642304002</v>
       </c>
       <c r="B16">
         <v>0.999</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>0.95448413821152001</v>
+        <v>0.96098413821152007</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
@@ -2637,23 +2697,27 @@
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>0.90956954536611845</v>
+        <v>0.92273859365880961</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>1.02996827642304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0429682764230401</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>0.92596827642304003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.91019746479302754</v>
+        <v>0.92319746479302756</v>
       </c>
       <c r="B17">
         <v>0.999</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>0.95459873239651372</v>
+        <v>0.96109873239651378</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
@@ -2664,23 +2728,27 @@
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0.90978956620130647</v>
+        <v>0.92296549014509732</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>1.0301974647930274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0431974647930276</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>0.92619746479302756</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.91019746479302754</v>
+        <v>0.92319746479302756</v>
       </c>
       <c r="B18">
         <v>0.999</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>0.95459873239651372</v>
+        <v>0.96109873239651378</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
@@ -2691,23 +2759,27 @@
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>0.90978956620130647</v>
+        <v>0.92296549014509732</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>1.0301974647930274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0431974647930276</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0.92619746479302756</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.91263089860934754</v>
+        <v>0.92563089860934755</v>
       </c>
       <c r="B19">
         <v>0.999</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>0.95581544930467377</v>
+        <v>0.96231544930467372</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
@@ -2718,23 +2790,27 @@
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>0.91212566266497364</v>
+        <v>0.92537458962325403</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>1.0326308986093475</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0456308986093474</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>0.92863089860934755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.91263089860934754</v>
+        <v>0.92563089860934755</v>
       </c>
       <c r="B20">
         <v>0.999</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>0.95581544930467377</v>
+        <v>0.96231544930467372</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
@@ -2745,23 +2821,27 @@
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>0.91212566266497364</v>
+        <v>0.92537458962325403</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>1.0326308986093475</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0456308986093474</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>0.92863089860934755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.91263089860934754</v>
+        <v>0.92563089860934755</v>
       </c>
       <c r="B21">
         <v>0.999</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>0.95581544930467377</v>
+        <v>0.96231544930467372</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
@@ -2772,23 +2852,27 @@
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>0.91212566266497364</v>
+        <v>0.92537458962325403</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>1.0326308986093475</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0456308986093474</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>0.92863089860934755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.91263089860934754</v>
+        <v>0.92563089860934755</v>
       </c>
       <c r="B22">
         <v>0.999</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>0.95581544930467377</v>
+        <v>0.96231544930467372</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
@@ -2799,23 +2883,27 @@
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>0.91212566266497364</v>
+        <v>0.92537458962325403</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>1.0326308986093475</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0456308986093474</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>0.92863089860934755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.91263089860934754</v>
+        <v>0.92563089860934755</v>
       </c>
       <c r="B23">
         <v>0.999</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>0.95581544930467377</v>
+        <v>0.96231544930467372</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
@@ -2826,23 +2914,27 @@
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>0.91212566266497364</v>
+        <v>0.92537458962325403</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>1.0326308986093475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0456308986093474</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>0.92863089860934755</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.91263089860934754</v>
+        <v>0.92563089860934755</v>
       </c>
       <c r="B24">
         <v>0.999</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>0.95581544930467377</v>
+        <v>0.96231544930467372</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
@@ -2853,23 +2945,27 @@
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>0.91212566266497364</v>
+        <v>0.92537458962325403</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>1.0326308986093475</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0456308986093474</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>0.92863089860934755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.91505569629062766</v>
+        <v>0.92805569629062767</v>
       </c>
       <c r="B25">
         <v>0.999</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>0.95702784814531383</v>
+        <v>0.96352784814531378</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
@@ -2880,23 +2976,27 @@
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>0.91445346843900255</v>
+        <v>0.92777513932772138</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>1.0350556962906277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0480556962906276</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>0.93105569629062768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.91505569629062766</v>
+        <v>0.92805569629062767</v>
       </c>
       <c r="B26">
         <v>0.999</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>0.95702784814531383</v>
+        <v>0.96352784814531378</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
@@ -2907,23 +3007,27 @@
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>0.91445346843900255</v>
+        <v>0.92777513932772138</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>1.0350556962906277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0480556962906276</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>0.93105569629062768</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.91505569629062766</v>
+        <v>0.92805569629062767</v>
       </c>
       <c r="B27">
         <v>0.999</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>0.95702784814531383</v>
+        <v>0.96352784814531378</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
@@ -2934,23 +3038,27 @@
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>0.91445346843900255</v>
+        <v>0.92777513932772138</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>1.0350556962906277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0480556962906276</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>0.93105569629062768</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.91727751422591997</v>
+        <v>0.93027751422591998</v>
       </c>
       <c r="B28">
         <v>0.999</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>0.95813875711296004</v>
+        <v>0.96463875711295999</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
@@ -2961,23 +3069,27 @@
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>0.9165864136568832</v>
+        <v>0.9299747390836608</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>1.0372775142259201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.05027751422592</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>0.93327751422591998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.91970943968447993</v>
+        <v>0.93270943968447995</v>
       </c>
       <c r="B29">
         <v>0.999</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>0.95935471984223997</v>
+        <v>0.96585471984224003</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
@@ -2988,23 +3100,27 @@
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>0.91892106209710078</v>
+        <v>0.93238234528763519</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>1.0397094396844799</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0527094396844801</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>0.93570943968447995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.91970943968447993</v>
+        <v>0.93270943968447995</v>
       </c>
       <c r="B30">
         <v>0.999</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>0.95935471984223997</v>
+        <v>0.96585471984224003</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
@@ -3015,23 +3131,27 @@
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>0.91892106209710078</v>
+        <v>0.93238234528763519</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>1.0397094396844799</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0527094396844801</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>0.93570943968447995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.92213813779007991</v>
+        <v>0.93513813779007993</v>
       </c>
       <c r="B31">
         <v>0.999</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>0.9605690688950399</v>
+        <v>0.96706906889503996</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
@@ -3042,23 +3162,27 @@
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>0.92125261227847677</v>
+        <v>0.93478675641217912</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>1.0421381377900798</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0551381377900799</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>0.93813813779007993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.92213813779007991</v>
+        <v>0.93513813779007993</v>
       </c>
       <c r="B32">
         <v>0.999</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>0.9605690688950399</v>
+        <v>0.96706906889503996</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
@@ -3069,23 +3193,27 @@
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>0.92125261227847677</v>
+        <v>0.93478675641217912</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>1.0421381377900798</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0551381377900799</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>0.93813813779007993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.92213813779007991</v>
+        <v>0.93513813779007993</v>
       </c>
       <c r="B33">
         <v>0.999</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>0.9605690688950399</v>
+        <v>0.96706906889503996</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
@@ -3096,23 +3224,27 @@
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>0.92125261227847677</v>
+        <v>0.93478675641217912</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
-        <v>1.0421381377900798</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0551381377900799</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>0.93813813779007993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.92213813779007991</v>
+        <v>0.93513813779007993</v>
       </c>
       <c r="B34">
         <v>0.999</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>0.9605690688950399</v>
+        <v>0.96706906889503996</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
@@ -3123,23 +3255,27 @@
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>0.92125261227847677</v>
+        <v>0.93478675641217912</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
-        <v>1.0421381377900798</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0551381377900799</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>0.93813813779007993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.92213813779007991</v>
+        <v>0.93513813779007993</v>
       </c>
       <c r="B35">
         <v>0.999</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>0.9605690688950399</v>
+        <v>0.96706906889503996</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
@@ -3150,23 +3286,27 @@
       </c>
       <c r="H35">
         <f t="shared" si="2"/>
-        <v>0.92125261227847677</v>
+        <v>0.93478675641217912</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
-        <v>1.0421381377900798</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0551381377900799</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>0.93813813779007993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.92213813779007991</v>
+        <v>0.93513813779007993</v>
       </c>
       <c r="B36">
         <v>0.999</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>0.9605690688950399</v>
+        <v>0.96706906889503996</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
@@ -3177,23 +3317,27 @@
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>0.92125261227847677</v>
+        <v>0.93478675641217912</v>
       </c>
       <c r="I36">
         <f t="shared" si="3"/>
-        <v>1.0421381377900798</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0551381377900799</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>0.93813813779007993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.92213813779007991</v>
+        <v>0.93513813779007993</v>
       </c>
       <c r="B37">
         <v>0.999</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>0.9605690688950399</v>
+        <v>0.96706906889503996</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
@@ -3204,23 +3348,27 @@
       </c>
       <c r="H37">
         <f t="shared" si="2"/>
-        <v>0.92125261227847677</v>
+        <v>0.93478675641217912</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
-        <v>1.0421381377900798</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0551381377900799</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>0.93813813779007993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.92213813779007991</v>
+        <v>0.93513813779007993</v>
       </c>
       <c r="B38">
         <v>0.999</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>0.9605690688950399</v>
+        <v>0.96706906889503996</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
@@ -3231,23 +3379,27 @@
       </c>
       <c r="H38">
         <f t="shared" si="2"/>
-        <v>0.92125261227847677</v>
+        <v>0.93478675641217912</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
-        <v>1.0421381377900798</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0551381377900799</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>0.93813813779007993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.92213813779007991</v>
+        <v>0.93513813779007993</v>
       </c>
       <c r="B39">
         <v>0.999</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>0.9605690688950399</v>
+        <v>0.96706906889503996</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
@@ -3258,23 +3410,27 @@
       </c>
       <c r="H39">
         <f t="shared" si="2"/>
-        <v>0.92125261227847677</v>
+        <v>0.93478675641217912</v>
       </c>
       <c r="I39">
         <f t="shared" si="3"/>
-        <v>1.0421381377900798</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0551381377900799</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>0.93813813779007993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.92213813779007991</v>
+        <v>0.93513813779007993</v>
       </c>
       <c r="B40">
         <v>0.999</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>0.9605690688950399</v>
+        <v>0.96706906889503996</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
@@ -3285,23 +3441,27 @@
       </c>
       <c r="H40">
         <f t="shared" si="2"/>
-        <v>0.92125261227847677</v>
+        <v>0.93478675641217912</v>
       </c>
       <c r="I40">
         <f t="shared" si="3"/>
-        <v>1.0421381377900798</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0551381377900799</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>0.93813813779007993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.92213813779007991</v>
+        <v>0.93513813779007993</v>
       </c>
       <c r="B41">
         <v>0.999</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>0.9605690688950399</v>
+        <v>0.96706906889503996</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
@@ -3312,23 +3472,27 @@
       </c>
       <c r="H41">
         <f t="shared" si="2"/>
-        <v>0.92125261227847677</v>
+        <v>0.93478675641217912</v>
       </c>
       <c r="I41">
         <f t="shared" si="3"/>
-        <v>1.0421381377900798</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0551381377900799</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>0.93813813779007993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.92213813779007991</v>
+        <v>0.93513813779007993</v>
       </c>
       <c r="B42">
         <v>0.999</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>0.9605690688950399</v>
+        <v>0.96706906889503996</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
@@ -3339,23 +3503,27 @@
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
-        <v>0.92125261227847677</v>
+        <v>0.93478675641217912</v>
       </c>
       <c r="I42">
         <f t="shared" si="3"/>
-        <v>1.0421381377900798</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0551381377900799</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="4"/>
+        <v>0.93813813779007993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.92213813779007991</v>
+        <v>0.93513813779007993</v>
       </c>
       <c r="B43">
         <v>0.999</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>0.9605690688950399</v>
+        <v>0.96706906889503996</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
@@ -3366,23 +3534,27 @@
       </c>
       <c r="H43">
         <f t="shared" si="2"/>
-        <v>0.92125261227847677</v>
+        <v>0.93478675641217912</v>
       </c>
       <c r="I43">
         <f t="shared" si="3"/>
-        <v>1.0421381377900798</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0551381377900799</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="4"/>
+        <v>0.93813813779007993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.92213813779007991</v>
+        <v>0.93513813779007993</v>
       </c>
       <c r="B44">
         <v>0.999</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>0.9605690688950399</v>
+        <v>0.96706906889503996</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
@@ -3393,23 +3565,27 @@
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
-        <v>0.92125261227847677</v>
+        <v>0.93478675641217912</v>
       </c>
       <c r="I44">
         <f t="shared" si="3"/>
-        <v>1.0421381377900798</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0551381377900799</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="4"/>
+        <v>0.93813813779007993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.92213813779007991</v>
+        <v>0.93513813779007993</v>
       </c>
       <c r="B45">
         <v>0.999</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>0.9605690688950399</v>
+        <v>0.96706906889503996</v>
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
@@ -3420,23 +3596,27 @@
       </c>
       <c r="H45">
         <f t="shared" si="2"/>
-        <v>0.92125261227847677</v>
+        <v>0.93478675641217912</v>
       </c>
       <c r="I45">
         <f t="shared" si="3"/>
-        <v>1.0421381377900798</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0551381377900799</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="4"/>
+        <v>0.93813813779007993</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.92456279020415999</v>
+        <v>0.93756279020416</v>
       </c>
       <c r="B46">
         <v>0.999</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>0.96178139510207994</v>
+        <v>0.96828139510208</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
@@ -3447,23 +3627,27 @@
       </c>
       <c r="H46">
         <f t="shared" si="2"/>
-        <v>0.92358027859599356</v>
+        <v>0.9371871623021184</v>
       </c>
       <c r="I46">
         <f t="shared" si="3"/>
-        <v>1.0445627902041599</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.05756279020416</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="4"/>
+        <v>0.94056279020416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.92456279020415999</v>
+        <v>0.93756279020416</v>
       </c>
       <c r="B47">
         <v>0.999</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>0.96178139510207994</v>
+        <v>0.96828139510208</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
@@ -3474,23 +3658,27 @@
       </c>
       <c r="H47">
         <f t="shared" si="2"/>
-        <v>0.92358027859599356</v>
+        <v>0.9371871623021184</v>
       </c>
       <c r="I47">
         <f t="shared" si="3"/>
-        <v>1.0445627902041599</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.05756279020416</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="4"/>
+        <v>0.94056279020416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.92456279020415999</v>
+        <v>0.93756279020416</v>
       </c>
       <c r="B48">
         <v>0.999</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>0.96178139510207994</v>
+        <v>0.96828139510208</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
@@ -3501,23 +3689,27 @@
       </c>
       <c r="H48">
         <f t="shared" si="2"/>
-        <v>0.92358027859599356</v>
+        <v>0.9371871623021184</v>
       </c>
       <c r="I48">
         <f t="shared" si="3"/>
-        <v>1.0445627902041599</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.05756279020416</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="4"/>
+        <v>0.94056279020416</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.92485332460415992</v>
+        <v>0.93785332460415993</v>
       </c>
       <c r="B49">
         <v>0.999</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>0.9619266623020799</v>
+        <v>0.96842666230207997</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
@@ -3528,23 +3720,27 @@
       </c>
       <c r="H49">
         <f t="shared" si="2"/>
-        <v>0.92385919161999353</v>
+        <v>0.93747479135811829</v>
       </c>
       <c r="I49">
         <f t="shared" si="3"/>
-        <v>1.0448533246041598</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0578533246041599</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="4"/>
+        <v>0.94085332460415994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.9260209048819199</v>
+        <v>0.93902090488191992</v>
       </c>
       <c r="B50">
         <v>0.999</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>0.96251045244096001</v>
+        <v>0.96901045244095996</v>
       </c>
       <c r="E50">
         <f>B50-0.14</f>
@@ -3555,11 +3751,15 @@
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
-        <v>0.92498006868664306</v>
+        <v>0.93863069583310077</v>
       </c>
       <c r="I50">
         <f t="shared" si="3"/>
-        <v>1.04602090488192</v>
+        <v>1.0590209048819199</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="4"/>
+        <v>0.94202090488191992</v>
       </c>
     </row>
   </sheetData>

--- a/papers/coalition-journal-extension/charts/avg_avail_ws_task.xlsx
+++ b/papers/coalition-journal-extension/charts/avg_avail_ws_task.xlsx
@@ -13,6 +13,14 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>=</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -95,154 +103,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.91323242752</c:v>
+                  <c:v>0.92912688218316797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91566749801343994</c:v>
+                  <c:v>0.9304561871655368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91566749801343994</c:v>
+                  <c:v>0.9304561871655368</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91566749801343994</c:v>
+                  <c:v>0.9304561871655368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91566749801343994</c:v>
+                  <c:v>0.9304561871655368</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91615795397631994</c:v>
+                  <c:v>0.93072392707567297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91615795397631994</c:v>
+                  <c:v>0.93072392707567297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91809291550144001</c:v>
+                  <c:v>0.93178022257223603</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91809291550144001</c:v>
+                  <c:v>0.93178022257223603</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91809291550144001</c:v>
+                  <c:v>0.93178022257223603</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91809291550144001</c:v>
+                  <c:v>0.93178022257223603</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92053999475007986</c:v>
+                  <c:v>0.93311608313406857</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.92053999475007986</c:v>
+                  <c:v>0.93311608313406857</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92296827642304002</c:v>
+                  <c:v>0.93444168209933764</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92296827642304002</c:v>
+                  <c:v>0.93444168209933764</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92296827642304002</c:v>
+                  <c:v>0.93444168209933764</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92319746479302756</c:v>
+                  <c:v>0.93456679603051374</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92319746479302756</c:v>
+                  <c:v>0.93456679603051374</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.92563089860934755</c:v>
+                  <c:v>0.93589520755084266</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92563089860934755</c:v>
+                  <c:v>0.93589520755084266</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92563089860934755</c:v>
+                  <c:v>0.93589520755084266</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.92563089860934755</c:v>
+                  <c:v>0.93589520755084266</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.92563089860934755</c:v>
+                  <c:v>0.93589520755084266</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.92563089860934755</c:v>
+                  <c:v>0.93589520755084266</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.92805569629062767</c:v>
+                  <c:v>0.93721890460505353</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.92805569629062767</c:v>
+                  <c:v>0.93721890460505353</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.92805569629062767</c:v>
+                  <c:v>0.93721890460505353</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.93027751422591998</c:v>
+                  <c:v>0.93843179501592966</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.93270943968447995</c:v>
+                  <c:v>0.93975938312375762</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.93270943968447995</c:v>
+                  <c:v>0.93975938312375762</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.93513813779007993</c:v>
+                  <c:v>0.94108520941960461</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.93513813779007993</c:v>
+                  <c:v>0.94108520941960461</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.93513813779007993</c:v>
+                  <c:v>0.94108520941960461</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.93513813779007993</c:v>
+                  <c:v>0.94108520941960461</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.93513813779007993</c:v>
+                  <c:v>0.94108520941960461</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.93513813779007993</c:v>
+                  <c:v>0.94108520941960461</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.93513813779007993</c:v>
+                  <c:v>0.94108520941960461</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.93513813779007993</c:v>
+                  <c:v>0.94108520941960461</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.93513813779007993</c:v>
+                  <c:v>0.94108520941960461</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.93513813779007993</c:v>
+                  <c:v>0.94108520941960461</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.93513813779007993</c:v>
+                  <c:v>0.94108520941960461</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.93513813779007993</c:v>
+                  <c:v>0.94108520941960461</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.93513813779007993</c:v>
+                  <c:v>0.94108520941960461</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.93513813779007993</c:v>
+                  <c:v>0.94108520941960461</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.93513813779007993</c:v>
+                  <c:v>0.94108520941960461</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.93756279020416</c:v>
+                  <c:v>0.94240882717245089</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.93756279020416</c:v>
+                  <c:v>0.94240882717245089</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.93756279020416</c:v>
+                  <c:v>0.94240882717245089</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.93785332460415993</c:v>
+                  <c:v>0.94256742990141085</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.93902090488191992</c:v>
+                  <c:v>0.94320481197504014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -426,11 +434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111388544"/>
-        <c:axId val="111390080"/>
+        <c:axId val="110708608"/>
+        <c:axId val="110710144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111388544"/>
+        <c:axId val="110708608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -439,7 +447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111390080"/>
+        <c:crossAx val="110710144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -447,7 +455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111390080"/>
+        <c:axId val="110710144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -460,7 +468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111388544"/>
+        <c:crossAx val="110708608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1347,11 +1355,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="134281856"/>
-        <c:axId val="134291840"/>
+        <c:axId val="127752832"/>
+        <c:axId val="127771008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134281856"/>
+        <c:axId val="127752832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,7 +1368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134291840"/>
+        <c:crossAx val="127771008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1368,7 +1376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134291840"/>
+        <c:axId val="127771008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +1387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134281856"/>
+        <c:crossAx val="127752832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1764,11 +1772,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="135275264"/>
-        <c:axId val="135276800"/>
+        <c:axId val="128254720"/>
+        <c:axId val="128256256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135275264"/>
+        <c:axId val="128254720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,7 +1785,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135276800"/>
+        <c:crossAx val="128256256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1785,7 +1793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135276800"/>
+        <c:axId val="128256256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1796,7 +1804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135275264"/>
+        <c:crossAx val="128254720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2204,24 +2212,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection sqref="A1:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.91323242752</v>
+        <v>0.92912688218316797</v>
       </c>
       <c r="B1">
         <v>0.999</v>
       </c>
       <c r="D1">
         <f>(A1+B1)/2</f>
-        <v>0.95611621376</v>
+        <v>0.96406344109158404</v>
       </c>
       <c r="E1">
         <f>B1-0.14</f>
@@ -2232,27 +2240,50 @@
       </c>
       <c r="H1">
         <f>((A1-0.9)*0.99)+0.9</f>
-        <v>0.91310010324479995</v>
+        <v>0.92883561336133624</v>
       </c>
       <c r="I1">
         <f>A1+0.12</f>
-        <v>1.03323242752</v>
+        <v>1.0491268821831681</v>
       </c>
       <c r="K1">
         <f>A1+0.003</f>
-        <v>0.91623242752</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93212688218316797</v>
+      </c>
+      <c r="M1">
+        <f>((A1-0.913)*0.98)+0.913</f>
+        <v>0.92880434453950456</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <f>A1-0.03</f>
+        <v>0.89912688218316794</v>
+      </c>
+      <c r="R1">
+        <f>((A1-0.926)*1.03)+0.926</f>
+        <v>0.92922068864866303</v>
+      </c>
+      <c r="T1">
+        <f>A1+0.003</f>
+        <v>0.93212688218316797</v>
+      </c>
+      <c r="U1">
+        <f>((A1-0.929)*1.06)+0.929</f>
+        <v>0.92913449511415802</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.91566749801343994</v>
+        <v>0.9304561871655368</v>
       </c>
       <c r="B2">
         <v>0.999</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D50" si="0">(A2+B2)/2</f>
-        <v>0.95733374900671997</v>
+        <v>0.96472809358276845</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E49" si="1">B2-0.14</f>
@@ -2263,27 +2294,47 @@
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H50" si="2">((A2-0.9)*0.99)+0.9</f>
-        <v>0.91551082303330555</v>
+        <v>0.9301516252938814</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I50" si="3">A2+0.12</f>
-        <v>1.0356674980134399</v>
+        <v>1.0504561871655369</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K50" si="4">A2+0.003</f>
-        <v>0.91866749801343994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.9334561871655368</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M50" si="5">((A2-0.913)*0.98)+0.913</f>
+        <v>0.93010706342222604</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q50" si="6">A2-0.03</f>
+        <v>0.90045618716553677</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:R50" si="7">((A2-0.926)*1.03)+0.926</f>
+        <v>0.93058987278050287</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:T50" si="8">A2+0.003</f>
+        <v>0.9334561871655368</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2:U49" si="9">((A2-0.929)*1.06)+0.929</f>
+        <v>0.93054355839546898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.91566749801343994</v>
+        <v>0.9304561871655368</v>
       </c>
       <c r="B3">
         <v>0.999</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>0.95733374900671997</v>
+        <v>0.96472809358276845</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
@@ -2294,27 +2345,47 @@
       </c>
       <c r="H3">
         <f t="shared" si="2"/>
-        <v>0.91551082303330555</v>
+        <v>0.9301516252938814</v>
       </c>
       <c r="I3">
         <f t="shared" si="3"/>
-        <v>1.0356674980134399</v>
+        <v>1.0504561871655369</v>
       </c>
       <c r="K3">
         <f t="shared" si="4"/>
-        <v>0.91866749801343994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.9334561871655368</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="5"/>
+        <v>0.93010706342222604</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="6"/>
+        <v>0.90045618716553677</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="7"/>
+        <v>0.93058987278050287</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="8"/>
+        <v>0.9334561871655368</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="9"/>
+        <v>0.93054355839546898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.91566749801343994</v>
+        <v>0.9304561871655368</v>
       </c>
       <c r="B4">
         <v>0.999</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.95733374900671997</v>
+        <v>0.96472809358276845</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
@@ -2325,27 +2396,47 @@
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>0.91551082303330555</v>
+        <v>0.9301516252938814</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>1.0356674980134399</v>
+        <v>1.0504561871655369</v>
       </c>
       <c r="K4">
         <f t="shared" si="4"/>
-        <v>0.91866749801343994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.9334561871655368</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>0.93010706342222604</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="6"/>
+        <v>0.90045618716553677</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="7"/>
+        <v>0.93058987278050287</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="8"/>
+        <v>0.9334561871655368</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="9"/>
+        <v>0.93054355839546898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.91566749801343994</v>
+        <v>0.9304561871655368</v>
       </c>
       <c r="B5">
         <v>0.999</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.95733374900671997</v>
+        <v>0.96472809358276845</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
@@ -2356,27 +2447,47 @@
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>0.91551082303330555</v>
+        <v>0.9301516252938814</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>1.0356674980134399</v>
+        <v>1.0504561871655369</v>
       </c>
       <c r="K5">
         <f t="shared" si="4"/>
-        <v>0.91866749801343994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.9334561871655368</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>0.93010706342222604</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="6"/>
+        <v>0.90045618716553677</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="7"/>
+        <v>0.93058987278050287</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="8"/>
+        <v>0.9334561871655368</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="9"/>
+        <v>0.93054355839546898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.91615795397631994</v>
+        <v>0.93072392707567297</v>
       </c>
       <c r="B6">
         <v>0.999</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.95757897698815997</v>
+        <v>0.96486196353783649</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
@@ -2387,27 +2498,47 @@
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>0.91599637443655679</v>
+        <v>0.93041668780491626</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>1.0361579539763199</v>
+        <v>1.050723927075673</v>
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>0.91915795397631994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93372392707567298</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>0.93036944853415948</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>0.90072392707567295</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="7"/>
+        <v>0.93086564488794321</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="8"/>
+        <v>0.93372392707567298</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="9"/>
+        <v>0.93082736270021338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.91615795397631994</v>
+        <v>0.93072392707567297</v>
       </c>
       <c r="B7">
         <v>0.999</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.95757897698815997</v>
+        <v>0.96486196353783649</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
@@ -2418,27 +2549,47 @@
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0.91599637443655679</v>
+        <v>0.93041668780491626</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>1.0361579539763199</v>
+        <v>1.050723927075673</v>
       </c>
       <c r="K7">
         <f t="shared" si="4"/>
-        <v>0.91915795397631994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93372392707567298</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>0.93036944853415948</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>0.90072392707567295</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="7"/>
+        <v>0.93086564488794321</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="8"/>
+        <v>0.93372392707567298</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="9"/>
+        <v>0.93082736270021338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.91809291550144001</v>
+        <v>0.93178022257223603</v>
       </c>
       <c r="B8">
         <v>0.999</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.95854645775072</v>
+        <v>0.96539011128611807</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
@@ -2449,27 +2600,47 @@
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>0.91791198634642557</v>
+        <v>0.93146242034651361</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>1.03809291550144</v>
+        <v>1.0517802225722361</v>
       </c>
       <c r="K8">
         <f t="shared" si="4"/>
-        <v>0.92109291550144001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93478022257223603</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>0.93140461812079134</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>0.901780222572236</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="7"/>
+        <v>0.93195362924940306</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="8"/>
+        <v>0.93478022257223603</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="9"/>
+        <v>0.93194703592657013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.91809291550144001</v>
+        <v>0.93178022257223603</v>
       </c>
       <c r="B9">
         <v>0.999</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.95854645775072</v>
+        <v>0.96539011128611807</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
@@ -2480,27 +2651,47 @@
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>0.91791198634642557</v>
+        <v>0.93146242034651361</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>1.03809291550144</v>
+        <v>1.0517802225722361</v>
       </c>
       <c r="K9">
         <f t="shared" si="4"/>
-        <v>0.92109291550144001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93478022257223603</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>0.93140461812079134</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>0.901780222572236</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="7"/>
+        <v>0.93195362924940306</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="8"/>
+        <v>0.93478022257223603</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="9"/>
+        <v>0.93194703592657013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.91809291550144001</v>
+        <v>0.93178022257223603</v>
       </c>
       <c r="B10">
         <v>0.999</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.95854645775072</v>
+        <v>0.96539011128611807</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
@@ -2511,27 +2702,47 @@
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0.91791198634642557</v>
+        <v>0.93146242034651361</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>1.03809291550144</v>
+        <v>1.0517802225722361</v>
       </c>
       <c r="K10">
         <f t="shared" si="4"/>
-        <v>0.92109291550144001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93478022257223603</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>0.93140461812079134</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="6"/>
+        <v>0.901780222572236</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="7"/>
+        <v>0.93195362924940306</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="8"/>
+        <v>0.93478022257223603</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="9"/>
+        <v>0.93194703592657013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.91809291550144001</v>
+        <v>0.93178022257223603</v>
       </c>
       <c r="B11">
         <v>0.999</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.95854645775072</v>
+        <v>0.96539011128611807</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
@@ -2542,27 +2753,47 @@
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>0.91791198634642557</v>
+        <v>0.93146242034651361</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>1.03809291550144</v>
+        <v>1.0517802225722361</v>
       </c>
       <c r="K11">
         <f t="shared" si="4"/>
-        <v>0.92109291550144001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93478022257223603</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>0.93140461812079134</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="6"/>
+        <v>0.901780222572236</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="7"/>
+        <v>0.93195362924940306</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="8"/>
+        <v>0.93478022257223603</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="9"/>
+        <v>0.93194703592657013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.92053999475007986</v>
+        <v>0.93311608313406857</v>
       </c>
       <c r="B12">
         <v>0.999</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0.95976999737503998</v>
+        <v>0.96605804156703434</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
@@ -2573,27 +2804,47 @@
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>0.92033459480257906</v>
+        <v>0.93278492230272791</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>1.04053999475008</v>
+        <v>1.0531160831340687</v>
       </c>
       <c r="K12">
         <f t="shared" si="4"/>
-        <v>0.92353999475007986</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93611608313406858</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>0.93271376147138718</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="6"/>
+        <v>0.90311608313406855</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="7"/>
+        <v>0.93332956562809066</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="8"/>
+        <v>0.93611608313406858</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="9"/>
+        <v>0.93336304812211268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.92053999475007986</v>
+        <v>0.93311608313406857</v>
       </c>
       <c r="B13">
         <v>0.999</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>0.95976999737503998</v>
+        <v>0.96605804156703434</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
@@ -2604,27 +2855,47 @@
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>0.92033459480257906</v>
+        <v>0.93278492230272791</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>1.04053999475008</v>
+        <v>1.0531160831340687</v>
       </c>
       <c r="K13">
         <f t="shared" si="4"/>
-        <v>0.92353999475007986</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93611608313406858</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>0.93271376147138718</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
+        <v>0.90311608313406855</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="7"/>
+        <v>0.93332956562809066</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="8"/>
+        <v>0.93611608313406858</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="9"/>
+        <v>0.93336304812211268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.92296827642304002</v>
+        <v>0.93444168209933764</v>
       </c>
       <c r="B14">
         <v>0.999</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0.96098413821152007</v>
+        <v>0.96672084104966882</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
@@ -2635,27 +2906,47 @@
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0.92273859365880961</v>
+        <v>0.93409726527834425</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>1.0429682764230401</v>
+        <v>1.0544416820993376</v>
       </c>
       <c r="K14">
         <f t="shared" si="4"/>
-        <v>0.92596827642304003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93744168209933765</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>0.93401284845735089</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>0.90444168209933762</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="7"/>
+        <v>0.93469493256231773</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="8"/>
+        <v>0.93744168209933765</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="9"/>
+        <v>0.93476818302529785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.92296827642304002</v>
+        <v>0.93444168209933764</v>
       </c>
       <c r="B15">
         <v>0.999</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>0.96098413821152007</v>
+        <v>0.96672084104966882</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
@@ -2666,27 +2957,47 @@
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>0.92273859365880961</v>
+        <v>0.93409726527834425</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>1.0429682764230401</v>
+        <v>1.0544416820993376</v>
       </c>
       <c r="K15">
         <f t="shared" si="4"/>
-        <v>0.92596827642304003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93744168209933765</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>0.93401284845735089</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="6"/>
+        <v>0.90444168209933762</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="7"/>
+        <v>0.93469493256231773</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="8"/>
+        <v>0.93744168209933765</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="9"/>
+        <v>0.93476818302529785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.92296827642304002</v>
+        <v>0.93444168209933764</v>
       </c>
       <c r="B16">
         <v>0.999</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>0.96098413821152007</v>
+        <v>0.96672084104966882</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
@@ -2697,27 +3008,47 @@
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>0.92273859365880961</v>
+        <v>0.93409726527834425</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>1.0429682764230401</v>
+        <v>1.0544416820993376</v>
       </c>
       <c r="K16">
         <f t="shared" si="4"/>
-        <v>0.92596827642304003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93744168209933765</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>0.93401284845735089</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>0.90444168209933762</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="7"/>
+        <v>0.93469493256231773</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="8"/>
+        <v>0.93744168209933765</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="9"/>
+        <v>0.93476818302529785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.92319746479302756</v>
+        <v>0.93456679603051374</v>
       </c>
       <c r="B17">
         <v>0.999</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>0.96109873239651378</v>
+        <v>0.96678339801525692</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
@@ -2728,27 +3059,47 @@
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0.92296549014509732</v>
+        <v>0.93422112807020863</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>1.0431974647930276</v>
+        <v>1.0545667960305138</v>
       </c>
       <c r="K17">
         <f t="shared" si="4"/>
-        <v>0.92619746479302756</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93756679603051374</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>0.93413546010990345</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>0.90456679603051371</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="7"/>
+        <v>0.93482379991142917</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="8"/>
+        <v>0.93756679603051374</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="9"/>
+        <v>0.93490080379234453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.92319746479302756</v>
+        <v>0.93456679603051374</v>
       </c>
       <c r="B18">
         <v>0.999</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>0.96109873239651378</v>
+        <v>0.96678339801525692</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
@@ -2759,27 +3110,47 @@
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>0.92296549014509732</v>
+        <v>0.93422112807020863</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>1.0431974647930276</v>
+        <v>1.0545667960305138</v>
       </c>
       <c r="K18">
         <f t="shared" si="4"/>
-        <v>0.92619746479302756</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93756679603051374</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>0.93413546010990345</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="6"/>
+        <v>0.90456679603051371</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="7"/>
+        <v>0.93482379991142917</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="8"/>
+        <v>0.93756679603051374</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="9"/>
+        <v>0.93490080379234453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.92563089860934755</v>
+        <v>0.93589520755084266</v>
       </c>
       <c r="B19">
         <v>0.999</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>0.96231544930467372</v>
+        <v>0.96744760377542138</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
@@ -2790,27 +3161,47 @@
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>0.92537458962325403</v>
+        <v>0.93553625547533426</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>1.0456308986093474</v>
+        <v>1.0558952075508428</v>
       </c>
       <c r="K19">
         <f t="shared" si="4"/>
-        <v>0.92863089860934755</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93889520755084266</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>0.93543730339982578</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="6"/>
+        <v>0.90589520755084263</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="7"/>
+        <v>0.93619206377736797</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="8"/>
+        <v>0.93889520755084266</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="9"/>
+        <v>0.93630892000389321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.92563089860934755</v>
+        <v>0.93589520755084266</v>
       </c>
       <c r="B20">
         <v>0.999</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>0.96231544930467372</v>
+        <v>0.96744760377542138</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
@@ -2821,27 +3212,47 @@
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>0.92537458962325403</v>
+        <v>0.93553625547533426</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>1.0456308986093474</v>
+        <v>1.0558952075508428</v>
       </c>
       <c r="K20">
         <f t="shared" si="4"/>
-        <v>0.92863089860934755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93889520755084266</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>0.93543730339982578</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="6"/>
+        <v>0.90589520755084263</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="7"/>
+        <v>0.93619206377736797</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="8"/>
+        <v>0.93889520755084266</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="9"/>
+        <v>0.93630892000389321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.92563089860934755</v>
+        <v>0.93589520755084266</v>
       </c>
       <c r="B21">
         <v>0.999</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>0.96231544930467372</v>
+        <v>0.96744760377542138</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
@@ -2852,27 +3263,47 @@
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>0.92537458962325403</v>
+        <v>0.93553625547533426</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>1.0456308986093474</v>
+        <v>1.0558952075508428</v>
       </c>
       <c r="K21">
         <f t="shared" si="4"/>
-        <v>0.92863089860934755</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93889520755084266</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>0.93543730339982578</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="6"/>
+        <v>0.90589520755084263</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="7"/>
+        <v>0.93619206377736797</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="8"/>
+        <v>0.93889520755084266</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="9"/>
+        <v>0.93630892000389321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.92563089860934755</v>
+        <v>0.93589520755084266</v>
       </c>
       <c r="B22">
         <v>0.999</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>0.96231544930467372</v>
+        <v>0.96744760377542138</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
@@ -2883,27 +3314,47 @@
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>0.92537458962325403</v>
+        <v>0.93553625547533426</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>1.0456308986093474</v>
+        <v>1.0558952075508428</v>
       </c>
       <c r="K22">
         <f t="shared" si="4"/>
-        <v>0.92863089860934755</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93889520755084266</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>0.93543730339982578</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="6"/>
+        <v>0.90589520755084263</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="7"/>
+        <v>0.93619206377736797</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="8"/>
+        <v>0.93889520755084266</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="9"/>
+        <v>0.93630892000389321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.92563089860934755</v>
+        <v>0.93589520755084266</v>
       </c>
       <c r="B23">
         <v>0.999</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>0.96231544930467372</v>
+        <v>0.96744760377542138</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
@@ -2914,27 +3365,47 @@
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>0.92537458962325403</v>
+        <v>0.93553625547533426</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>1.0456308986093474</v>
+        <v>1.0558952075508428</v>
       </c>
       <c r="K23">
         <f t="shared" si="4"/>
-        <v>0.92863089860934755</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93889520755084266</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>0.93543730339982578</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="6"/>
+        <v>0.90589520755084263</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="7"/>
+        <v>0.93619206377736797</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="8"/>
+        <v>0.93889520755084266</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="9"/>
+        <v>0.93630892000389321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.92563089860934755</v>
+        <v>0.93589520755084266</v>
       </c>
       <c r="B24">
         <v>0.999</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>0.96231544930467372</v>
+        <v>0.96744760377542138</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
@@ -2945,27 +3416,47 @@
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>0.92537458962325403</v>
+        <v>0.93553625547533426</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>1.0456308986093474</v>
+        <v>1.0558952075508428</v>
       </c>
       <c r="K24">
         <f t="shared" si="4"/>
-        <v>0.92863089860934755</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93889520755084266</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>0.93543730339982578</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="6"/>
+        <v>0.90589520755084263</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="7"/>
+        <v>0.93619206377736797</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="8"/>
+        <v>0.93889520755084266</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="9"/>
+        <v>0.93630892000389321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.92805569629062767</v>
+        <v>0.93721890460505353</v>
       </c>
       <c r="B25">
         <v>0.999</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>0.96352784814531378</v>
+        <v>0.96810945230252676</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
@@ -2976,27 +3467,47 @@
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>0.92777513932772138</v>
+        <v>0.93684671555900301</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>1.0480556962906276</v>
+        <v>1.0572189046050535</v>
       </c>
       <c r="K25">
         <f t="shared" si="4"/>
-        <v>0.93105569629062768</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94021890460505353</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>0.93673452651295241</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="6"/>
+        <v>0.9072189046050535</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="7"/>
+        <v>0.93755547174320508</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="8"/>
+        <v>0.94021890460505353</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="9"/>
+        <v>0.93771203888135668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.92805569629062767</v>
+        <v>0.93721890460505353</v>
       </c>
       <c r="B26">
         <v>0.999</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>0.96352784814531378</v>
+        <v>0.96810945230252676</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
@@ -3007,27 +3518,47 @@
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>0.92777513932772138</v>
+        <v>0.93684671555900301</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>1.0480556962906276</v>
+        <v>1.0572189046050535</v>
       </c>
       <c r="K26">
         <f t="shared" si="4"/>
-        <v>0.93105569629062768</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94021890460505353</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>0.93673452651295241</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="6"/>
+        <v>0.9072189046050535</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="7"/>
+        <v>0.93755547174320508</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="8"/>
+        <v>0.94021890460505353</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="9"/>
+        <v>0.93771203888135668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.92805569629062767</v>
+        <v>0.93721890460505353</v>
       </c>
       <c r="B27">
         <v>0.999</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>0.96352784814531378</v>
+        <v>0.96810945230252676</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
@@ -3038,27 +3569,47 @@
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>0.92777513932772138</v>
+        <v>0.93684671555900301</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>1.0480556962906276</v>
+        <v>1.0572189046050535</v>
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
-        <v>0.93105569629062768</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94021890460505353</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>0.93673452651295241</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="6"/>
+        <v>0.9072189046050535</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="7"/>
+        <v>0.93755547174320508</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="8"/>
+        <v>0.94021890460505353</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="9"/>
+        <v>0.93771203888135668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.93027751422591998</v>
+        <v>0.93843179501592966</v>
       </c>
       <c r="B28">
         <v>0.999</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>0.96463875711295999</v>
+        <v>0.96871589750796483</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
@@ -3069,27 +3620,47 @@
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>0.9299747390836608</v>
+        <v>0.93804747706577041</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>1.05027751422592</v>
+        <v>1.0584317950159297</v>
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
-        <v>0.93327751422591998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94143179501592966</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>0.93792315911561108</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="6"/>
+        <v>0.90843179501592963</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="7"/>
+        <v>0.93880474886640752</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="8"/>
+        <v>0.94143179501592966</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="9"/>
+        <v>0.93899770271688543</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.93270943968447995</v>
+        <v>0.93975938312375762</v>
       </c>
       <c r="B29">
         <v>0.999</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>0.96585471984224003</v>
+        <v>0.96937969156187886</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
@@ -3100,27 +3671,47 @@
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>0.93238234528763519</v>
+        <v>0.93936178929252001</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>1.0527094396844801</v>
+        <v>1.0597593831237577</v>
       </c>
       <c r="K29">
         <f t="shared" si="4"/>
-        <v>0.93570943968447995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94275938312375762</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>0.93922419546128244</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="6"/>
+        <v>0.90975938312375759</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="7"/>
+        <v>0.94017216461747033</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="8"/>
+        <v>0.94275938312375762</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="9"/>
+        <v>0.94040494611118308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.93270943968447995</v>
+        <v>0.93975938312375762</v>
       </c>
       <c r="B30">
         <v>0.999</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>0.96585471984224003</v>
+        <v>0.96937969156187886</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
@@ -3131,27 +3722,47 @@
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>0.93238234528763519</v>
+        <v>0.93936178929252001</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>1.0527094396844801</v>
+        <v>1.0597593831237577</v>
       </c>
       <c r="K30">
         <f t="shared" si="4"/>
-        <v>0.93570943968447995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94275938312375762</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>0.93922419546128244</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="6"/>
+        <v>0.90975938312375759</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="7"/>
+        <v>0.94017216461747033</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="8"/>
+        <v>0.94275938312375762</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="9"/>
+        <v>0.94040494611118308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.93513813779007993</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="B31">
         <v>0.999</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>0.96706906889503996</v>
+        <v>0.9700426047098023</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
@@ -3162,27 +3773,47 @@
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>0.93478675641217912</v>
+        <v>0.94067435732540861</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>1.0551381377900799</v>
+        <v>1.0610852094196046</v>
       </c>
       <c r="K31">
         <f t="shared" si="4"/>
-        <v>0.93813813779007993</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>0.94052350523121253</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="6"/>
+        <v>0.91108520941960458</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="7"/>
+        <v>0.94153776570219272</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="8"/>
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="9"/>
+        <v>0.94181032198478087</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.93513813779007993</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="B32">
         <v>0.999</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>0.96706906889503996</v>
+        <v>0.9700426047098023</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
@@ -3193,27 +3824,47 @@
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>0.93478675641217912</v>
+        <v>0.94067435732540861</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>1.0551381377900799</v>
+        <v>1.0610852094196046</v>
       </c>
       <c r="K32">
         <f t="shared" si="4"/>
-        <v>0.93813813779007993</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>0.94052350523121253</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="6"/>
+        <v>0.91108520941960458</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="7"/>
+        <v>0.94153776570219272</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="8"/>
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="9"/>
+        <v>0.94181032198478087</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.93513813779007993</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="B33">
         <v>0.999</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>0.96706906889503996</v>
+        <v>0.9700426047098023</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
@@ -3224,27 +3875,47 @@
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>0.93478675641217912</v>
+        <v>0.94067435732540861</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
-        <v>1.0551381377900799</v>
+        <v>1.0610852094196046</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>0.93813813779007993</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>0.94052350523121253</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="6"/>
+        <v>0.91108520941960458</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="7"/>
+        <v>0.94153776570219272</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="8"/>
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="9"/>
+        <v>0.94181032198478087</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.93513813779007993</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="B34">
         <v>0.999</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>0.96706906889503996</v>
+        <v>0.9700426047098023</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
@@ -3255,27 +3926,47 @@
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>0.93478675641217912</v>
+        <v>0.94067435732540861</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
-        <v>1.0551381377900799</v>
+        <v>1.0610852094196046</v>
       </c>
       <c r="K34">
         <f t="shared" si="4"/>
-        <v>0.93813813779007993</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>0.94052350523121253</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="6"/>
+        <v>0.91108520941960458</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="7"/>
+        <v>0.94153776570219272</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="8"/>
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="9"/>
+        <v>0.94181032198478087</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.93513813779007993</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="B35">
         <v>0.999</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>0.96706906889503996</v>
+        <v>0.9700426047098023</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
@@ -3286,27 +3977,47 @@
       </c>
       <c r="H35">
         <f t="shared" si="2"/>
-        <v>0.93478675641217912</v>
+        <v>0.94067435732540861</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
-        <v>1.0551381377900799</v>
+        <v>1.0610852094196046</v>
       </c>
       <c r="K35">
         <f t="shared" si="4"/>
-        <v>0.93813813779007993</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>0.94052350523121253</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="6"/>
+        <v>0.91108520941960458</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="7"/>
+        <v>0.94153776570219272</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="8"/>
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="9"/>
+        <v>0.94181032198478087</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.93513813779007993</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="B36">
         <v>0.999</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>0.96706906889503996</v>
+        <v>0.9700426047098023</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
@@ -3317,27 +4028,47 @@
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>0.93478675641217912</v>
+        <v>0.94067435732540861</v>
       </c>
       <c r="I36">
         <f t="shared" si="3"/>
-        <v>1.0551381377900799</v>
+        <v>1.0610852094196046</v>
       </c>
       <c r="K36">
         <f t="shared" si="4"/>
-        <v>0.93813813779007993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>0.94052350523121253</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="6"/>
+        <v>0.91108520941960458</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="7"/>
+        <v>0.94153776570219272</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="8"/>
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="9"/>
+        <v>0.94181032198478087</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.93513813779007993</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="B37">
         <v>0.999</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>0.96706906889503996</v>
+        <v>0.9700426047098023</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
@@ -3348,27 +4079,47 @@
       </c>
       <c r="H37">
         <f t="shared" si="2"/>
-        <v>0.93478675641217912</v>
+        <v>0.94067435732540861</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
-        <v>1.0551381377900799</v>
+        <v>1.0610852094196046</v>
       </c>
       <c r="K37">
         <f t="shared" si="4"/>
-        <v>0.93813813779007993</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>0.94052350523121253</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="6"/>
+        <v>0.91108520941960458</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="7"/>
+        <v>0.94153776570219272</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="8"/>
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="9"/>
+        <v>0.94181032198478087</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.93513813779007993</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="B38">
         <v>0.999</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>0.96706906889503996</v>
+        <v>0.9700426047098023</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
@@ -3379,27 +4130,47 @@
       </c>
       <c r="H38">
         <f t="shared" si="2"/>
-        <v>0.93478675641217912</v>
+        <v>0.94067435732540861</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
-        <v>1.0551381377900799</v>
+        <v>1.0610852094196046</v>
       </c>
       <c r="K38">
         <f t="shared" si="4"/>
-        <v>0.93813813779007993</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>0.94052350523121253</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="6"/>
+        <v>0.91108520941960458</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="7"/>
+        <v>0.94153776570219272</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="8"/>
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="9"/>
+        <v>0.94181032198478087</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.93513813779007993</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="B39">
         <v>0.999</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>0.96706906889503996</v>
+        <v>0.9700426047098023</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
@@ -3410,27 +4181,47 @@
       </c>
       <c r="H39">
         <f t="shared" si="2"/>
-        <v>0.93478675641217912</v>
+        <v>0.94067435732540861</v>
       </c>
       <c r="I39">
         <f t="shared" si="3"/>
-        <v>1.0551381377900799</v>
+        <v>1.0610852094196046</v>
       </c>
       <c r="K39">
         <f t="shared" si="4"/>
-        <v>0.93813813779007993</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>0.94052350523121253</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="6"/>
+        <v>0.91108520941960458</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="7"/>
+        <v>0.94153776570219272</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="8"/>
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="9"/>
+        <v>0.94181032198478087</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.93513813779007993</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="B40">
         <v>0.999</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>0.96706906889503996</v>
+        <v>0.9700426047098023</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
@@ -3441,27 +4232,47 @@
       </c>
       <c r="H40">
         <f t="shared" si="2"/>
-        <v>0.93478675641217912</v>
+        <v>0.94067435732540861</v>
       </c>
       <c r="I40">
         <f t="shared" si="3"/>
-        <v>1.0551381377900799</v>
+        <v>1.0610852094196046</v>
       </c>
       <c r="K40">
         <f t="shared" si="4"/>
-        <v>0.93813813779007993</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>0.94052350523121253</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="6"/>
+        <v>0.91108520941960458</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="7"/>
+        <v>0.94153776570219272</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="8"/>
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="9"/>
+        <v>0.94181032198478087</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.93513813779007993</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="B41">
         <v>0.999</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>0.96706906889503996</v>
+        <v>0.9700426047098023</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
@@ -3472,27 +4283,47 @@
       </c>
       <c r="H41">
         <f t="shared" si="2"/>
-        <v>0.93478675641217912</v>
+        <v>0.94067435732540861</v>
       </c>
       <c r="I41">
         <f t="shared" si="3"/>
-        <v>1.0551381377900799</v>
+        <v>1.0610852094196046</v>
       </c>
       <c r="K41">
         <f t="shared" si="4"/>
-        <v>0.93813813779007993</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>0.94052350523121253</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="6"/>
+        <v>0.91108520941960458</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="7"/>
+        <v>0.94153776570219272</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="8"/>
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="9"/>
+        <v>0.94181032198478087</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.93513813779007993</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="B42">
         <v>0.999</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>0.96706906889503996</v>
+        <v>0.9700426047098023</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
@@ -3503,27 +4334,47 @@
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
-        <v>0.93478675641217912</v>
+        <v>0.94067435732540861</v>
       </c>
       <c r="I42">
         <f t="shared" si="3"/>
-        <v>1.0551381377900799</v>
+        <v>1.0610852094196046</v>
       </c>
       <c r="K42">
         <f t="shared" si="4"/>
-        <v>0.93813813779007993</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>0.94052350523121253</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="6"/>
+        <v>0.91108520941960458</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="7"/>
+        <v>0.94153776570219272</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="8"/>
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="9"/>
+        <v>0.94181032198478087</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.93513813779007993</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="B43">
         <v>0.999</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>0.96706906889503996</v>
+        <v>0.9700426047098023</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
@@ -3534,27 +4385,47 @@
       </c>
       <c r="H43">
         <f t="shared" si="2"/>
-        <v>0.93478675641217912</v>
+        <v>0.94067435732540861</v>
       </c>
       <c r="I43">
         <f t="shared" si="3"/>
-        <v>1.0551381377900799</v>
+        <v>1.0610852094196046</v>
       </c>
       <c r="K43">
         <f t="shared" si="4"/>
-        <v>0.93813813779007993</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>0.94052350523121253</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="6"/>
+        <v>0.91108520941960458</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="7"/>
+        <v>0.94153776570219272</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="8"/>
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="9"/>
+        <v>0.94181032198478087</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.93513813779007993</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="B44">
         <v>0.999</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>0.96706906889503996</v>
+        <v>0.9700426047098023</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
@@ -3565,27 +4436,47 @@
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
-        <v>0.93478675641217912</v>
+        <v>0.94067435732540861</v>
       </c>
       <c r="I44">
         <f t="shared" si="3"/>
-        <v>1.0551381377900799</v>
+        <v>1.0610852094196046</v>
       </c>
       <c r="K44">
         <f t="shared" si="4"/>
-        <v>0.93813813779007993</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="5"/>
+        <v>0.94052350523121253</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="6"/>
+        <v>0.91108520941960458</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="7"/>
+        <v>0.94153776570219272</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="8"/>
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="9"/>
+        <v>0.94181032198478087</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.93513813779007993</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="B45">
         <v>0.999</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>0.96706906889503996</v>
+        <v>0.9700426047098023</v>
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
@@ -3596,27 +4487,47 @@
       </c>
       <c r="H45">
         <f t="shared" si="2"/>
-        <v>0.93478675641217912</v>
+        <v>0.94067435732540861</v>
       </c>
       <c r="I45">
         <f t="shared" si="3"/>
-        <v>1.0551381377900799</v>
+        <v>1.0610852094196046</v>
       </c>
       <c r="K45">
         <f t="shared" si="4"/>
-        <v>0.93813813779007993</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>0.94052350523121253</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="6"/>
+        <v>0.91108520941960458</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="7"/>
+        <v>0.94153776570219272</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="8"/>
+        <v>0.94408520941960461</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="9"/>
+        <v>0.94181032198478087</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.93756279020416</v>
+        <v>0.94240882717245089</v>
       </c>
       <c r="B46">
         <v>0.999</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>0.96828139510208</v>
+        <v>0.9707044135862255</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
@@ -3627,27 +4538,47 @@
       </c>
       <c r="H46">
         <f t="shared" si="2"/>
-        <v>0.9371871623021184</v>
+        <v>0.94198473890072643</v>
       </c>
       <c r="I46">
         <f t="shared" si="3"/>
-        <v>1.05756279020416</v>
+        <v>1.062408827172451</v>
       </c>
       <c r="K46">
         <f t="shared" si="4"/>
-        <v>0.94056279020416</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94540882717245089</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="5"/>
+        <v>0.94182065062900189</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="6"/>
+        <v>0.91240882717245086</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="7"/>
+        <v>0.9429010919876244</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="8"/>
+        <v>0.94540882717245089</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="9"/>
+        <v>0.94321335680279794</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.93756279020416</v>
+        <v>0.94240882717245089</v>
       </c>
       <c r="B47">
         <v>0.999</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>0.96828139510208</v>
+        <v>0.9707044135862255</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
@@ -3658,27 +4589,47 @@
       </c>
       <c r="H47">
         <f t="shared" si="2"/>
-        <v>0.9371871623021184</v>
+        <v>0.94198473890072643</v>
       </c>
       <c r="I47">
         <f t="shared" si="3"/>
-        <v>1.05756279020416</v>
+        <v>1.062408827172451</v>
       </c>
       <c r="K47">
         <f t="shared" si="4"/>
-        <v>0.94056279020416</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94540882717245089</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="5"/>
+        <v>0.94182065062900189</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="6"/>
+        <v>0.91240882717245086</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="7"/>
+        <v>0.9429010919876244</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="8"/>
+        <v>0.94540882717245089</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="9"/>
+        <v>0.94321335680279794</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.93756279020416</v>
+        <v>0.94240882717245089</v>
       </c>
       <c r="B48">
         <v>0.999</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>0.96828139510208</v>
+        <v>0.9707044135862255</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
@@ -3689,27 +4640,47 @@
       </c>
       <c r="H48">
         <f t="shared" si="2"/>
-        <v>0.9371871623021184</v>
+        <v>0.94198473890072643</v>
       </c>
       <c r="I48">
         <f t="shared" si="3"/>
-        <v>1.05756279020416</v>
+        <v>1.062408827172451</v>
       </c>
       <c r="K48">
         <f t="shared" si="4"/>
-        <v>0.94056279020416</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94540882717245089</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="5"/>
+        <v>0.94182065062900189</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="6"/>
+        <v>0.91240882717245086</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="7"/>
+        <v>0.9429010919876244</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="8"/>
+        <v>0.94540882717245089</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="9"/>
+        <v>0.94321335680279794</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.93785332460415993</v>
+        <v>0.94256742990141085</v>
       </c>
       <c r="B49">
         <v>0.999</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>0.96842666230207997</v>
+        <v>0.97078371495070548</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
@@ -3720,27 +4691,47 @@
       </c>
       <c r="H49">
         <f t="shared" si="2"/>
-        <v>0.93747479135811829</v>
+        <v>0.94214175560239677</v>
       </c>
       <c r="I49">
         <f t="shared" si="3"/>
-        <v>1.0578533246041599</v>
+        <v>1.062567429901411</v>
       </c>
       <c r="K49">
         <f t="shared" si="4"/>
-        <v>0.94085332460415994</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94556742990141085</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="5"/>
+        <v>0.94197608130338262</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="6"/>
+        <v>0.91256742990141082</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="7"/>
+        <v>0.94306445279845319</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="8"/>
+        <v>0.94556742990141085</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="9"/>
+        <v>0.94338147569549546</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.93902090488191992</v>
+        <v>0.94320481197504014</v>
       </c>
       <c r="B50">
         <v>0.999</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>0.96901045244095996</v>
+        <v>0.97110240598752007</v>
       </c>
       <c r="E50">
         <f>B50-0.14</f>
@@ -3751,15 +4742,35 @@
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
-        <v>0.93863069583310077</v>
+        <v>0.94277276385528974</v>
       </c>
       <c r="I50">
         <f t="shared" si="3"/>
-        <v>1.0590209048819199</v>
+        <v>1.0632048119750401</v>
       </c>
       <c r="K50">
         <f t="shared" si="4"/>
-        <v>0.94202090488191992</v>
+        <v>0.94620481197504014</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="5"/>
+        <v>0.94260071573553939</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="6"/>
+        <v>0.91320481197504011</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="7"/>
+        <v>0.94372095633429132</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="8"/>
+        <v>0.94620481197504014</v>
+      </c>
+      <c r="U50">
+        <f>((A50-0.929)*1.06)+0.929</f>
+        <v>0.94405710069354254</v>
       </c>
     </row>
   </sheetData>

--- a/papers/coalition-journal-extension/charts/avg_avail_ws_task.xlsx
+++ b/papers/coalition-journal-extension/charts/avg_avail_ws_task.xlsx
@@ -103,154 +103,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.92912688218316797</c:v>
+                  <c:v>0.95912688218316799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9304561871655368</c:v>
+                  <c:v>0.96045618716553682</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9304561871655368</c:v>
+                  <c:v>0.96045618716553682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9304561871655368</c:v>
+                  <c:v>0.96045618716553682</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9304561871655368</c:v>
+                  <c:v>0.96045618716553682</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93072392707567297</c:v>
+                  <c:v>0.960723927075673</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93072392707567297</c:v>
+                  <c:v>0.960723927075673</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93178022257223603</c:v>
+                  <c:v>0.96178022257223605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.93178022257223603</c:v>
+                  <c:v>0.96178022257223605</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93178022257223603</c:v>
+                  <c:v>0.96178022257223605</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.93178022257223603</c:v>
+                  <c:v>0.96178022257223605</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.93311608313406857</c:v>
+                  <c:v>0.9631160831340686</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.93311608313406857</c:v>
+                  <c:v>0.9631160831340686</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.93444168209933764</c:v>
+                  <c:v>0.96444168209933767</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.93444168209933764</c:v>
+                  <c:v>0.96444168209933767</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.93444168209933764</c:v>
+                  <c:v>0.96444168209933767</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.93456679603051374</c:v>
+                  <c:v>0.96456679603051376</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93456679603051374</c:v>
+                  <c:v>0.96456679603051376</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93589520755084266</c:v>
+                  <c:v>0.96589520755084268</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.93589520755084266</c:v>
+                  <c:v>0.96589520755084268</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.93589520755084266</c:v>
+                  <c:v>0.96589520755084268</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.93589520755084266</c:v>
+                  <c:v>0.96589520755084268</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.93589520755084266</c:v>
+                  <c:v>0.96589520755084268</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.93589520755084266</c:v>
+                  <c:v>0.96589520755084268</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.93721890460505353</c:v>
+                  <c:v>0.96721890460505355</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.93721890460505353</c:v>
+                  <c:v>0.96721890460505355</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.93721890460505353</c:v>
+                  <c:v>0.96721890460505355</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.93843179501592966</c:v>
+                  <c:v>0.96843179501592969</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.93975938312375762</c:v>
+                  <c:v>0.96975938312375765</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.93975938312375762</c:v>
+                  <c:v>0.96975938312375765</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.94108520941960461</c:v>
+                  <c:v>0.97108520941960463</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.94108520941960461</c:v>
+                  <c:v>0.97108520941960463</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.94108520941960461</c:v>
+                  <c:v>0.97108520941960463</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94108520941960461</c:v>
+                  <c:v>0.97108520941960463</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.94108520941960461</c:v>
+                  <c:v>0.97108520941960463</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.94108520941960461</c:v>
+                  <c:v>0.97108520941960463</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.94108520941960461</c:v>
+                  <c:v>0.97108520941960463</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.94108520941960461</c:v>
+                  <c:v>0.97108520941960463</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.94108520941960461</c:v>
+                  <c:v>0.97108520941960463</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.94108520941960461</c:v>
+                  <c:v>0.97108520941960463</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.94108520941960461</c:v>
+                  <c:v>0.97108520941960463</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.94108520941960461</c:v>
+                  <c:v>0.97108520941960463</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.94108520941960461</c:v>
+                  <c:v>0.97108520941960463</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.94108520941960461</c:v>
+                  <c:v>0.97108520941960463</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.94108520941960461</c:v>
+                  <c:v>0.97108520941960463</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.94240882717245089</c:v>
+                  <c:v>0.97240882717245092</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.94240882717245089</c:v>
+                  <c:v>0.97240882717245092</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.94240882717245089</c:v>
+                  <c:v>0.97240882717245092</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.94256742990141085</c:v>
+                  <c:v>0.97256742990141087</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.94320481197504014</c:v>
+                  <c:v>0.97320481197504016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -434,11 +434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110708608"/>
-        <c:axId val="110710144"/>
+        <c:axId val="92366336"/>
+        <c:axId val="127057920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110708608"/>
+        <c:axId val="92366336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -447,7 +447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110710144"/>
+        <c:crossAx val="127057920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -455,7 +455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110710144"/>
+        <c:axId val="127057920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -468,7 +468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110708608"/>
+        <c:crossAx val="92366336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1355,11 +1355,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127752832"/>
-        <c:axId val="127771008"/>
+        <c:axId val="153402368"/>
+        <c:axId val="153408256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127752832"/>
+        <c:axId val="153402368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1368,7 +1368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127771008"/>
+        <c:crossAx val="153408256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1376,7 +1376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127771008"/>
+        <c:axId val="153408256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,7 +1387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127752832"/>
+        <c:crossAx val="153402368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1772,11 +1772,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128254720"/>
-        <c:axId val="128256256"/>
+        <c:axId val="92398720"/>
+        <c:axId val="92400256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128254720"/>
+        <c:axId val="92398720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1785,7 +1785,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128256256"/>
+        <c:crossAx val="92400256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1793,7 +1793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128256256"/>
+        <c:axId val="92400256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1804,7 +1804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128254720"/>
+        <c:crossAx val="92398720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2212,7 +2212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A50"/>
@@ -2220,16 +2220,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.92912688218316797</v>
+        <v>0.95912688218316799</v>
       </c>
       <c r="B1">
         <v>0.999</v>
       </c>
       <c r="D1">
         <f>(A1+B1)/2</f>
-        <v>0.96406344109158404</v>
+        <v>0.97906344109158394</v>
       </c>
       <c r="E1">
         <f>B1-0.14</f>
@@ -2240,50 +2240,54 @@
       </c>
       <c r="H1">
         <f>((A1-0.9)*0.99)+0.9</f>
-        <v>0.92883561336133624</v>
+        <v>0.9585356133613363</v>
       </c>
       <c r="I1">
         <f>A1+0.12</f>
-        <v>1.0491268821831681</v>
+        <v>1.0791268821831679</v>
       </c>
       <c r="K1">
         <f>A1+0.003</f>
-        <v>0.93212688218316797</v>
+        <v>0.962126882183168</v>
       </c>
       <c r="M1">
         <f>((A1-0.913)*0.98)+0.913</f>
-        <v>0.92880434453950456</v>
+        <v>0.95820434453950465</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
       <c r="Q1">
         <f>A1-0.03</f>
-        <v>0.89912688218316794</v>
+        <v>0.92912688218316797</v>
       </c>
       <c r="R1">
         <f>((A1-0.926)*1.03)+0.926</f>
-        <v>0.92922068864866303</v>
+        <v>0.96012068864866307</v>
       </c>
       <c r="T1">
         <f>A1+0.003</f>
-        <v>0.93212688218316797</v>
+        <v>0.962126882183168</v>
       </c>
       <c r="U1">
         <f>((A1-0.929)*1.06)+0.929</f>
-        <v>0.92913449511415802</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96093449511415807</v>
+      </c>
+      <c r="W1">
+        <f>A1+0.03</f>
+        <v>0.98912688218316802</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.9304561871655368</v>
+        <v>0.96045618716553682</v>
       </c>
       <c r="B2">
         <v>0.999</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D50" si="0">(A2+B2)/2</f>
-        <v>0.96472809358276845</v>
+        <v>0.97972809358276836</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E49" si="1">B2-0.14</f>
@@ -2294,47 +2298,51 @@
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H50" si="2">((A2-0.9)*0.99)+0.9</f>
-        <v>0.9301516252938814</v>
+        <v>0.95985162529388146</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I50" si="3">A2+0.12</f>
-        <v>1.0504561871655369</v>
+        <v>1.0804561871655367</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K50" si="4">A2+0.003</f>
-        <v>0.9334561871655368</v>
+        <v>0.96345618716553683</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M50" si="5">((A2-0.913)*0.98)+0.913</f>
-        <v>0.93010706342222604</v>
+        <v>0.95950706342222614</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q50" si="6">A2-0.03</f>
-        <v>0.90045618716553677</v>
+        <v>0.9304561871655368</v>
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R50" si="7">((A2-0.926)*1.03)+0.926</f>
-        <v>0.93058987278050287</v>
+        <v>0.96148987278050291</v>
       </c>
       <c r="T2">
         <f t="shared" ref="T2:T50" si="8">A2+0.003</f>
-        <v>0.9334561871655368</v>
+        <v>0.96345618716553683</v>
       </c>
       <c r="U2">
         <f t="shared" ref="U2:U49" si="9">((A2-0.929)*1.06)+0.929</f>
-        <v>0.93054355839546898</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96234355839546903</v>
+      </c>
+      <c r="W2">
+        <f t="shared" ref="W2:W50" si="10">A2+0.03</f>
+        <v>0.99045618716553685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.9304561871655368</v>
+        <v>0.96045618716553682</v>
       </c>
       <c r="B3">
         <v>0.999</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>0.96472809358276845</v>
+        <v>0.97972809358276836</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
@@ -2345,47 +2353,51 @@
       </c>
       <c r="H3">
         <f t="shared" si="2"/>
-        <v>0.9301516252938814</v>
+        <v>0.95985162529388146</v>
       </c>
       <c r="I3">
         <f t="shared" si="3"/>
-        <v>1.0504561871655369</v>
+        <v>1.0804561871655367</v>
       </c>
       <c r="K3">
         <f t="shared" si="4"/>
-        <v>0.9334561871655368</v>
+        <v>0.96345618716553683</v>
       </c>
       <c r="M3">
         <f t="shared" si="5"/>
-        <v>0.93010706342222604</v>
+        <v>0.95950706342222614</v>
       </c>
       <c r="Q3">
         <f t="shared" si="6"/>
-        <v>0.90045618716553677</v>
+        <v>0.9304561871655368</v>
       </c>
       <c r="R3">
         <f t="shared" si="7"/>
-        <v>0.93058987278050287</v>
+        <v>0.96148987278050291</v>
       </c>
       <c r="T3">
         <f t="shared" si="8"/>
-        <v>0.9334561871655368</v>
+        <v>0.96345618716553683</v>
       </c>
       <c r="U3">
         <f t="shared" si="9"/>
-        <v>0.93054355839546898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96234355839546903</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="10"/>
+        <v>0.99045618716553685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.9304561871655368</v>
+        <v>0.96045618716553682</v>
       </c>
       <c r="B4">
         <v>0.999</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.96472809358276845</v>
+        <v>0.97972809358276836</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
@@ -2396,47 +2408,51 @@
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>0.9301516252938814</v>
+        <v>0.95985162529388146</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>1.0504561871655369</v>
+        <v>1.0804561871655367</v>
       </c>
       <c r="K4">
         <f t="shared" si="4"/>
-        <v>0.9334561871655368</v>
+        <v>0.96345618716553683</v>
       </c>
       <c r="M4">
         <f t="shared" si="5"/>
-        <v>0.93010706342222604</v>
+        <v>0.95950706342222614</v>
       </c>
       <c r="Q4">
         <f t="shared" si="6"/>
-        <v>0.90045618716553677</v>
+        <v>0.9304561871655368</v>
       </c>
       <c r="R4">
         <f t="shared" si="7"/>
-        <v>0.93058987278050287</v>
+        <v>0.96148987278050291</v>
       </c>
       <c r="T4">
         <f t="shared" si="8"/>
-        <v>0.9334561871655368</v>
+        <v>0.96345618716553683</v>
       </c>
       <c r="U4">
         <f t="shared" si="9"/>
-        <v>0.93054355839546898</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96234355839546903</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="10"/>
+        <v>0.99045618716553685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.9304561871655368</v>
+        <v>0.96045618716553682</v>
       </c>
       <c r="B5">
         <v>0.999</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.96472809358276845</v>
+        <v>0.97972809358276836</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
@@ -2447,47 +2463,51 @@
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>0.9301516252938814</v>
+        <v>0.95985162529388146</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>1.0504561871655369</v>
+        <v>1.0804561871655367</v>
       </c>
       <c r="K5">
         <f t="shared" si="4"/>
-        <v>0.9334561871655368</v>
+        <v>0.96345618716553683</v>
       </c>
       <c r="M5">
         <f t="shared" si="5"/>
-        <v>0.93010706342222604</v>
+        <v>0.95950706342222614</v>
       </c>
       <c r="Q5">
         <f t="shared" si="6"/>
-        <v>0.90045618716553677</v>
+        <v>0.9304561871655368</v>
       </c>
       <c r="R5">
         <f t="shared" si="7"/>
-        <v>0.93058987278050287</v>
+        <v>0.96148987278050291</v>
       </c>
       <c r="T5">
         <f t="shared" si="8"/>
-        <v>0.9334561871655368</v>
+        <v>0.96345618716553683</v>
       </c>
       <c r="U5">
         <f t="shared" si="9"/>
-        <v>0.93054355839546898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96234355839546903</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="10"/>
+        <v>0.99045618716553685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.93072392707567297</v>
+        <v>0.960723927075673</v>
       </c>
       <c r="B6">
         <v>0.999</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.96486196353783649</v>
+        <v>0.9798619635378365</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
@@ -2498,47 +2518,51 @@
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>0.93041668780491626</v>
+        <v>0.96011668780491632</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>1.050723927075673</v>
+        <v>1.080723927075673</v>
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>0.93372392707567298</v>
+        <v>0.963723927075673</v>
       </c>
       <c r="M6">
         <f t="shared" si="5"/>
-        <v>0.93036944853415948</v>
+        <v>0.95976944853415957</v>
       </c>
       <c r="Q6">
         <f t="shared" si="6"/>
-        <v>0.90072392707567295</v>
+        <v>0.93072392707567297</v>
       </c>
       <c r="R6">
         <f t="shared" si="7"/>
-        <v>0.93086564488794321</v>
+        <v>0.96176564488794314</v>
       </c>
       <c r="T6">
         <f t="shared" si="8"/>
-        <v>0.93372392707567298</v>
+        <v>0.963723927075673</v>
       </c>
       <c r="U6">
         <f t="shared" si="9"/>
-        <v>0.93082736270021338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96262736270021343</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="10"/>
+        <v>0.99072392707567303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.93072392707567297</v>
+        <v>0.960723927075673</v>
       </c>
       <c r="B7">
         <v>0.999</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.96486196353783649</v>
+        <v>0.9798619635378365</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
@@ -2549,47 +2573,51 @@
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0.93041668780491626</v>
+        <v>0.96011668780491632</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>1.050723927075673</v>
+        <v>1.080723927075673</v>
       </c>
       <c r="K7">
         <f t="shared" si="4"/>
-        <v>0.93372392707567298</v>
+        <v>0.963723927075673</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>0.93036944853415948</v>
+        <v>0.95976944853415957</v>
       </c>
       <c r="Q7">
         <f t="shared" si="6"/>
-        <v>0.90072392707567295</v>
+        <v>0.93072392707567297</v>
       </c>
       <c r="R7">
         <f t="shared" si="7"/>
-        <v>0.93086564488794321</v>
+        <v>0.96176564488794314</v>
       </c>
       <c r="T7">
         <f t="shared" si="8"/>
-        <v>0.93372392707567298</v>
+        <v>0.963723927075673</v>
       </c>
       <c r="U7">
         <f t="shared" si="9"/>
-        <v>0.93082736270021338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96262736270021343</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="10"/>
+        <v>0.99072392707567303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.93178022257223603</v>
+        <v>0.96178022257223605</v>
       </c>
       <c r="B8">
         <v>0.999</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.96539011128611807</v>
+        <v>0.98039011128611797</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
@@ -2600,47 +2628,51 @@
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>0.93146242034651361</v>
+        <v>0.96116242034651367</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>1.0517802225722361</v>
+        <v>1.0817802225722359</v>
       </c>
       <c r="K8">
         <f t="shared" si="4"/>
-        <v>0.93478022257223603</v>
+        <v>0.96478022257223606</v>
       </c>
       <c r="M8">
         <f t="shared" si="5"/>
-        <v>0.93140461812079134</v>
+        <v>0.96080461812079132</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
-        <v>0.901780222572236</v>
+        <v>0.93178022257223603</v>
       </c>
       <c r="R8">
         <f t="shared" si="7"/>
-        <v>0.93195362924940306</v>
+        <v>0.9628536292494031</v>
       </c>
       <c r="T8">
         <f t="shared" si="8"/>
-        <v>0.93478022257223603</v>
+        <v>0.96478022257223606</v>
       </c>
       <c r="U8">
         <f t="shared" si="9"/>
-        <v>0.93194703592657013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96374703592657018</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="10"/>
+        <v>0.99178022257223608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.93178022257223603</v>
+        <v>0.96178022257223605</v>
       </c>
       <c r="B9">
         <v>0.999</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.96539011128611807</v>
+        <v>0.98039011128611797</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
@@ -2651,47 +2683,51 @@
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>0.93146242034651361</v>
+        <v>0.96116242034651367</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>1.0517802225722361</v>
+        <v>1.0817802225722359</v>
       </c>
       <c r="K9">
         <f t="shared" si="4"/>
-        <v>0.93478022257223603</v>
+        <v>0.96478022257223606</v>
       </c>
       <c r="M9">
         <f t="shared" si="5"/>
-        <v>0.93140461812079134</v>
+        <v>0.96080461812079132</v>
       </c>
       <c r="Q9">
         <f t="shared" si="6"/>
-        <v>0.901780222572236</v>
+        <v>0.93178022257223603</v>
       </c>
       <c r="R9">
         <f t="shared" si="7"/>
-        <v>0.93195362924940306</v>
+        <v>0.9628536292494031</v>
       </c>
       <c r="T9">
         <f t="shared" si="8"/>
-        <v>0.93478022257223603</v>
+        <v>0.96478022257223606</v>
       </c>
       <c r="U9">
         <f t="shared" si="9"/>
-        <v>0.93194703592657013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96374703592657018</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="10"/>
+        <v>0.99178022257223608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.93178022257223603</v>
+        <v>0.96178022257223605</v>
       </c>
       <c r="B10">
         <v>0.999</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.96539011128611807</v>
+        <v>0.98039011128611797</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
@@ -2702,47 +2738,51 @@
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0.93146242034651361</v>
+        <v>0.96116242034651367</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>1.0517802225722361</v>
+        <v>1.0817802225722359</v>
       </c>
       <c r="K10">
         <f t="shared" si="4"/>
-        <v>0.93478022257223603</v>
+        <v>0.96478022257223606</v>
       </c>
       <c r="M10">
         <f t="shared" si="5"/>
-        <v>0.93140461812079134</v>
+        <v>0.96080461812079132</v>
       </c>
       <c r="Q10">
         <f t="shared" si="6"/>
-        <v>0.901780222572236</v>
+        <v>0.93178022257223603</v>
       </c>
       <c r="R10">
         <f t="shared" si="7"/>
-        <v>0.93195362924940306</v>
+        <v>0.9628536292494031</v>
       </c>
       <c r="T10">
         <f t="shared" si="8"/>
-        <v>0.93478022257223603</v>
+        <v>0.96478022257223606</v>
       </c>
       <c r="U10">
         <f t="shared" si="9"/>
-        <v>0.93194703592657013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96374703592657018</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="10"/>
+        <v>0.99178022257223608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.93178022257223603</v>
+        <v>0.96178022257223605</v>
       </c>
       <c r="B11">
         <v>0.999</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.96539011128611807</v>
+        <v>0.98039011128611797</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
@@ -2753,47 +2793,51 @@
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>0.93146242034651361</v>
+        <v>0.96116242034651367</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>1.0517802225722361</v>
+        <v>1.0817802225722359</v>
       </c>
       <c r="K11">
         <f t="shared" si="4"/>
-        <v>0.93478022257223603</v>
+        <v>0.96478022257223606</v>
       </c>
       <c r="M11">
         <f t="shared" si="5"/>
-        <v>0.93140461812079134</v>
+        <v>0.96080461812079132</v>
       </c>
       <c r="Q11">
         <f t="shared" si="6"/>
-        <v>0.901780222572236</v>
+        <v>0.93178022257223603</v>
       </c>
       <c r="R11">
         <f t="shared" si="7"/>
-        <v>0.93195362924940306</v>
+        <v>0.9628536292494031</v>
       </c>
       <c r="T11">
         <f t="shared" si="8"/>
-        <v>0.93478022257223603</v>
+        <v>0.96478022257223606</v>
       </c>
       <c r="U11">
         <f t="shared" si="9"/>
-        <v>0.93194703592657013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96374703592657018</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="10"/>
+        <v>0.99178022257223608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.93311608313406857</v>
+        <v>0.9631160831340686</v>
       </c>
       <c r="B12">
         <v>0.999</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0.96605804156703434</v>
+        <v>0.98105804156703424</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
@@ -2804,47 +2848,51 @@
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>0.93278492230272791</v>
+        <v>0.96248492230272786</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>1.0531160831340687</v>
+        <v>1.0831160831340685</v>
       </c>
       <c r="K12">
         <f t="shared" si="4"/>
-        <v>0.93611608313406858</v>
+        <v>0.9661160831340686</v>
       </c>
       <c r="M12">
         <f t="shared" si="5"/>
-        <v>0.93271376147138718</v>
+        <v>0.96211376147138727</v>
       </c>
       <c r="Q12">
         <f t="shared" si="6"/>
-        <v>0.90311608313406855</v>
+        <v>0.93311608313406857</v>
       </c>
       <c r="R12">
         <f t="shared" si="7"/>
-        <v>0.93332956562809066</v>
+        <v>0.9642295656280907</v>
       </c>
       <c r="T12">
         <f t="shared" si="8"/>
-        <v>0.93611608313406858</v>
+        <v>0.9661160831340686</v>
       </c>
       <c r="U12">
         <f t="shared" si="9"/>
-        <v>0.93336304812211268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96516304812211273</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="10"/>
+        <v>0.99311608313406863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.93311608313406857</v>
+        <v>0.9631160831340686</v>
       </c>
       <c r="B13">
         <v>0.999</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>0.96605804156703434</v>
+        <v>0.98105804156703424</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
@@ -2855,47 +2903,51 @@
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>0.93278492230272791</v>
+        <v>0.96248492230272786</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>1.0531160831340687</v>
+        <v>1.0831160831340685</v>
       </c>
       <c r="K13">
         <f t="shared" si="4"/>
-        <v>0.93611608313406858</v>
+        <v>0.9661160831340686</v>
       </c>
       <c r="M13">
         <f t="shared" si="5"/>
-        <v>0.93271376147138718</v>
+        <v>0.96211376147138727</v>
       </c>
       <c r="Q13">
         <f t="shared" si="6"/>
-        <v>0.90311608313406855</v>
+        <v>0.93311608313406857</v>
       </c>
       <c r="R13">
         <f t="shared" si="7"/>
-        <v>0.93332956562809066</v>
+        <v>0.9642295656280907</v>
       </c>
       <c r="T13">
         <f t="shared" si="8"/>
-        <v>0.93611608313406858</v>
+        <v>0.9661160831340686</v>
       </c>
       <c r="U13">
         <f t="shared" si="9"/>
-        <v>0.93336304812211268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96516304812211273</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="10"/>
+        <v>0.99311608313406863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.93444168209933764</v>
+        <v>0.96444168209933767</v>
       </c>
       <c r="B14">
         <v>0.999</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0.96672084104966882</v>
+        <v>0.98172084104966884</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
@@ -2906,47 +2958,51 @@
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0.93409726527834425</v>
+        <v>0.96379726527834431</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>1.0544416820993376</v>
+        <v>1.0844416820993377</v>
       </c>
       <c r="K14">
         <f t="shared" si="4"/>
-        <v>0.93744168209933765</v>
+        <v>0.96744168209933767</v>
       </c>
       <c r="M14">
         <f t="shared" si="5"/>
-        <v>0.93401284845735089</v>
+        <v>0.96341284845735087</v>
       </c>
       <c r="Q14">
         <f t="shared" si="6"/>
-        <v>0.90444168209933762</v>
+        <v>0.93444168209933764</v>
       </c>
       <c r="R14">
         <f t="shared" si="7"/>
-        <v>0.93469493256231773</v>
+        <v>0.96559493256231776</v>
       </c>
       <c r="T14">
         <f t="shared" si="8"/>
-        <v>0.93744168209933765</v>
+        <v>0.96744168209933767</v>
       </c>
       <c r="U14">
         <f t="shared" si="9"/>
-        <v>0.93476818302529785</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.9665681830252979</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="10"/>
+        <v>0.9944416820993377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.93444168209933764</v>
+        <v>0.96444168209933767</v>
       </c>
       <c r="B15">
         <v>0.999</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>0.96672084104966882</v>
+        <v>0.98172084104966884</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
@@ -2957,47 +3013,51 @@
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>0.93409726527834425</v>
+        <v>0.96379726527834431</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>1.0544416820993376</v>
+        <v>1.0844416820993377</v>
       </c>
       <c r="K15">
         <f t="shared" si="4"/>
-        <v>0.93744168209933765</v>
+        <v>0.96744168209933767</v>
       </c>
       <c r="M15">
         <f t="shared" si="5"/>
-        <v>0.93401284845735089</v>
+        <v>0.96341284845735087</v>
       </c>
       <c r="Q15">
         <f t="shared" si="6"/>
-        <v>0.90444168209933762</v>
+        <v>0.93444168209933764</v>
       </c>
       <c r="R15">
         <f t="shared" si="7"/>
-        <v>0.93469493256231773</v>
+        <v>0.96559493256231776</v>
       </c>
       <c r="T15">
         <f t="shared" si="8"/>
-        <v>0.93744168209933765</v>
+        <v>0.96744168209933767</v>
       </c>
       <c r="U15">
         <f t="shared" si="9"/>
-        <v>0.93476818302529785</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.9665681830252979</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="10"/>
+        <v>0.9944416820993377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.93444168209933764</v>
+        <v>0.96444168209933767</v>
       </c>
       <c r="B16">
         <v>0.999</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>0.96672084104966882</v>
+        <v>0.98172084104966884</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
@@ -3008,47 +3068,51 @@
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>0.93409726527834425</v>
+        <v>0.96379726527834431</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>1.0544416820993376</v>
+        <v>1.0844416820993377</v>
       </c>
       <c r="K16">
         <f t="shared" si="4"/>
-        <v>0.93744168209933765</v>
+        <v>0.96744168209933767</v>
       </c>
       <c r="M16">
         <f t="shared" si="5"/>
-        <v>0.93401284845735089</v>
+        <v>0.96341284845735087</v>
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>0.90444168209933762</v>
+        <v>0.93444168209933764</v>
       </c>
       <c r="R16">
         <f t="shared" si="7"/>
-        <v>0.93469493256231773</v>
+        <v>0.96559493256231776</v>
       </c>
       <c r="T16">
         <f t="shared" si="8"/>
-        <v>0.93744168209933765</v>
+        <v>0.96744168209933767</v>
       </c>
       <c r="U16">
         <f t="shared" si="9"/>
-        <v>0.93476818302529785</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.9665681830252979</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="10"/>
+        <v>0.9944416820993377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.93456679603051374</v>
+        <v>0.96456679603051376</v>
       </c>
       <c r="B17">
         <v>0.999</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>0.96678339801525692</v>
+        <v>0.98178339801525683</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
@@ -3059,47 +3123,51 @@
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0.93422112807020863</v>
+        <v>0.96392112807020858</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>1.0545667960305138</v>
+        <v>1.0845667960305136</v>
       </c>
       <c r="K17">
         <f t="shared" si="4"/>
-        <v>0.93756679603051374</v>
+        <v>0.96756679603051376</v>
       </c>
       <c r="M17">
         <f t="shared" si="5"/>
-        <v>0.93413546010990345</v>
+        <v>0.96353546010990354</v>
       </c>
       <c r="Q17">
         <f t="shared" si="6"/>
-        <v>0.90456679603051371</v>
+        <v>0.93456679603051374</v>
       </c>
       <c r="R17">
         <f t="shared" si="7"/>
-        <v>0.93482379991142917</v>
+        <v>0.9657237999114292</v>
       </c>
       <c r="T17">
         <f t="shared" si="8"/>
-        <v>0.93756679603051374</v>
+        <v>0.96756679603051376</v>
       </c>
       <c r="U17">
         <f t="shared" si="9"/>
-        <v>0.93490080379234453</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96670080379234458</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="10"/>
+        <v>0.99456679603051379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.93456679603051374</v>
+        <v>0.96456679603051376</v>
       </c>
       <c r="B18">
         <v>0.999</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>0.96678339801525692</v>
+        <v>0.98178339801525683</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
@@ -3110,47 +3178,51 @@
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>0.93422112807020863</v>
+        <v>0.96392112807020858</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>1.0545667960305138</v>
+        <v>1.0845667960305136</v>
       </c>
       <c r="K18">
         <f t="shared" si="4"/>
-        <v>0.93756679603051374</v>
+        <v>0.96756679603051376</v>
       </c>
       <c r="M18">
         <f t="shared" si="5"/>
-        <v>0.93413546010990345</v>
+        <v>0.96353546010990354</v>
       </c>
       <c r="Q18">
         <f t="shared" si="6"/>
-        <v>0.90456679603051371</v>
+        <v>0.93456679603051374</v>
       </c>
       <c r="R18">
         <f t="shared" si="7"/>
-        <v>0.93482379991142917</v>
+        <v>0.9657237999114292</v>
       </c>
       <c r="T18">
         <f t="shared" si="8"/>
-        <v>0.93756679603051374</v>
+        <v>0.96756679603051376</v>
       </c>
       <c r="U18">
         <f t="shared" si="9"/>
-        <v>0.93490080379234453</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96670080379234458</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="10"/>
+        <v>0.99456679603051379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.93589520755084266</v>
+        <v>0.96589520755084268</v>
       </c>
       <c r="B19">
         <v>0.999</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>0.96744760377542138</v>
+        <v>0.98244760377542129</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
@@ -3161,47 +3233,51 @@
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>0.93553625547533426</v>
+        <v>0.9652362554753342</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>1.0558952075508428</v>
+        <v>1.0858952075508426</v>
       </c>
       <c r="K19">
         <f t="shared" si="4"/>
-        <v>0.93889520755084266</v>
+        <v>0.96889520755084269</v>
       </c>
       <c r="M19">
         <f t="shared" si="5"/>
-        <v>0.93543730339982578</v>
+        <v>0.96483730339982587</v>
       </c>
       <c r="Q19">
         <f t="shared" si="6"/>
-        <v>0.90589520755084263</v>
+        <v>0.93589520755084266</v>
       </c>
       <c r="R19">
         <f t="shared" si="7"/>
-        <v>0.93619206377736797</v>
+        <v>0.96709206377736801</v>
       </c>
       <c r="T19">
         <f t="shared" si="8"/>
-        <v>0.93889520755084266</v>
+        <v>0.96889520755084269</v>
       </c>
       <c r="U19">
         <f t="shared" si="9"/>
-        <v>0.93630892000389321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96810892000389326</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="10"/>
+        <v>0.99589520755084271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.93589520755084266</v>
+        <v>0.96589520755084268</v>
       </c>
       <c r="B20">
         <v>0.999</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>0.96744760377542138</v>
+        <v>0.98244760377542129</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
@@ -3212,47 +3288,51 @@
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>0.93553625547533426</v>
+        <v>0.9652362554753342</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>1.0558952075508428</v>
+        <v>1.0858952075508426</v>
       </c>
       <c r="K20">
         <f t="shared" si="4"/>
-        <v>0.93889520755084266</v>
+        <v>0.96889520755084269</v>
       </c>
       <c r="M20">
         <f t="shared" si="5"/>
-        <v>0.93543730339982578</v>
+        <v>0.96483730339982587</v>
       </c>
       <c r="Q20">
         <f t="shared" si="6"/>
-        <v>0.90589520755084263</v>
+        <v>0.93589520755084266</v>
       </c>
       <c r="R20">
         <f t="shared" si="7"/>
-        <v>0.93619206377736797</v>
+        <v>0.96709206377736801</v>
       </c>
       <c r="T20">
         <f t="shared" si="8"/>
-        <v>0.93889520755084266</v>
+        <v>0.96889520755084269</v>
       </c>
       <c r="U20">
         <f t="shared" si="9"/>
-        <v>0.93630892000389321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96810892000389326</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="10"/>
+        <v>0.99589520755084271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.93589520755084266</v>
+        <v>0.96589520755084268</v>
       </c>
       <c r="B21">
         <v>0.999</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>0.96744760377542138</v>
+        <v>0.98244760377542129</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
@@ -3263,47 +3343,51 @@
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>0.93553625547533426</v>
+        <v>0.9652362554753342</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>1.0558952075508428</v>
+        <v>1.0858952075508426</v>
       </c>
       <c r="K21">
         <f t="shared" si="4"/>
-        <v>0.93889520755084266</v>
+        <v>0.96889520755084269</v>
       </c>
       <c r="M21">
         <f t="shared" si="5"/>
-        <v>0.93543730339982578</v>
+        <v>0.96483730339982587</v>
       </c>
       <c r="Q21">
         <f t="shared" si="6"/>
-        <v>0.90589520755084263</v>
+        <v>0.93589520755084266</v>
       </c>
       <c r="R21">
         <f t="shared" si="7"/>
-        <v>0.93619206377736797</v>
+        <v>0.96709206377736801</v>
       </c>
       <c r="T21">
         <f t="shared" si="8"/>
-        <v>0.93889520755084266</v>
+        <v>0.96889520755084269</v>
       </c>
       <c r="U21">
         <f t="shared" si="9"/>
-        <v>0.93630892000389321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96810892000389326</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="10"/>
+        <v>0.99589520755084271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.93589520755084266</v>
+        <v>0.96589520755084268</v>
       </c>
       <c r="B22">
         <v>0.999</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>0.96744760377542138</v>
+        <v>0.98244760377542129</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
@@ -3314,47 +3398,51 @@
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>0.93553625547533426</v>
+        <v>0.9652362554753342</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>1.0558952075508428</v>
+        <v>1.0858952075508426</v>
       </c>
       <c r="K22">
         <f t="shared" si="4"/>
-        <v>0.93889520755084266</v>
+        <v>0.96889520755084269</v>
       </c>
       <c r="M22">
         <f t="shared" si="5"/>
-        <v>0.93543730339982578</v>
+        <v>0.96483730339982587</v>
       </c>
       <c r="Q22">
         <f t="shared" si="6"/>
-        <v>0.90589520755084263</v>
+        <v>0.93589520755084266</v>
       </c>
       <c r="R22">
         <f t="shared" si="7"/>
-        <v>0.93619206377736797</v>
+        <v>0.96709206377736801</v>
       </c>
       <c r="T22">
         <f t="shared" si="8"/>
-        <v>0.93889520755084266</v>
+        <v>0.96889520755084269</v>
       </c>
       <c r="U22">
         <f t="shared" si="9"/>
-        <v>0.93630892000389321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96810892000389326</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="10"/>
+        <v>0.99589520755084271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.93589520755084266</v>
+        <v>0.96589520755084268</v>
       </c>
       <c r="B23">
         <v>0.999</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>0.96744760377542138</v>
+        <v>0.98244760377542129</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
@@ -3365,47 +3453,51 @@
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>0.93553625547533426</v>
+        <v>0.9652362554753342</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>1.0558952075508428</v>
+        <v>1.0858952075508426</v>
       </c>
       <c r="K23">
         <f t="shared" si="4"/>
-        <v>0.93889520755084266</v>
+        <v>0.96889520755084269</v>
       </c>
       <c r="M23">
         <f t="shared" si="5"/>
-        <v>0.93543730339982578</v>
+        <v>0.96483730339982587</v>
       </c>
       <c r="Q23">
         <f t="shared" si="6"/>
-        <v>0.90589520755084263</v>
+        <v>0.93589520755084266</v>
       </c>
       <c r="R23">
         <f t="shared" si="7"/>
-        <v>0.93619206377736797</v>
+        <v>0.96709206377736801</v>
       </c>
       <c r="T23">
         <f t="shared" si="8"/>
-        <v>0.93889520755084266</v>
+        <v>0.96889520755084269</v>
       </c>
       <c r="U23">
         <f t="shared" si="9"/>
-        <v>0.93630892000389321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96810892000389326</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="10"/>
+        <v>0.99589520755084271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.93589520755084266</v>
+        <v>0.96589520755084268</v>
       </c>
       <c r="B24">
         <v>0.999</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>0.96744760377542138</v>
+        <v>0.98244760377542129</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
@@ -3416,47 +3508,51 @@
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>0.93553625547533426</v>
+        <v>0.9652362554753342</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>1.0558952075508428</v>
+        <v>1.0858952075508426</v>
       </c>
       <c r="K24">
         <f t="shared" si="4"/>
-        <v>0.93889520755084266</v>
+        <v>0.96889520755084269</v>
       </c>
       <c r="M24">
         <f t="shared" si="5"/>
-        <v>0.93543730339982578</v>
+        <v>0.96483730339982587</v>
       </c>
       <c r="Q24">
         <f t="shared" si="6"/>
-        <v>0.90589520755084263</v>
+        <v>0.93589520755084266</v>
       </c>
       <c r="R24">
         <f t="shared" si="7"/>
-        <v>0.93619206377736797</v>
+        <v>0.96709206377736801</v>
       </c>
       <c r="T24">
         <f t="shared" si="8"/>
-        <v>0.93889520755084266</v>
+        <v>0.96889520755084269</v>
       </c>
       <c r="U24">
         <f t="shared" si="9"/>
-        <v>0.93630892000389321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96810892000389326</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="10"/>
+        <v>0.99589520755084271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.93721890460505353</v>
+        <v>0.96721890460505355</v>
       </c>
       <c r="B25">
         <v>0.999</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>0.96810945230252676</v>
+        <v>0.98310945230252678</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
@@ -3467,47 +3563,51 @@
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>0.93684671555900301</v>
+        <v>0.96654671555900307</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>1.0572189046050535</v>
+        <v>1.0872189046050535</v>
       </c>
       <c r="K25">
         <f t="shared" si="4"/>
-        <v>0.94021890460505353</v>
+        <v>0.97021890460505356</v>
       </c>
       <c r="M25">
         <f t="shared" si="5"/>
-        <v>0.93673452651295241</v>
+        <v>0.96613452651295251</v>
       </c>
       <c r="Q25">
         <f t="shared" si="6"/>
-        <v>0.9072189046050535</v>
+        <v>0.93721890460505353</v>
       </c>
       <c r="R25">
         <f t="shared" si="7"/>
-        <v>0.93755547174320508</v>
+        <v>0.96845547174320512</v>
       </c>
       <c r="T25">
         <f t="shared" si="8"/>
-        <v>0.94021890460505353</v>
+        <v>0.97021890460505356</v>
       </c>
       <c r="U25">
         <f t="shared" si="9"/>
-        <v>0.93771203888135668</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96951203888135673</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="10"/>
+        <v>0.99721890460505358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.93721890460505353</v>
+        <v>0.96721890460505355</v>
       </c>
       <c r="B26">
         <v>0.999</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>0.96810945230252676</v>
+        <v>0.98310945230252678</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
@@ -3518,47 +3618,51 @@
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>0.93684671555900301</v>
+        <v>0.96654671555900307</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>1.0572189046050535</v>
+        <v>1.0872189046050535</v>
       </c>
       <c r="K26">
         <f t="shared" si="4"/>
-        <v>0.94021890460505353</v>
+        <v>0.97021890460505356</v>
       </c>
       <c r="M26">
         <f t="shared" si="5"/>
-        <v>0.93673452651295241</v>
+        <v>0.96613452651295251</v>
       </c>
       <c r="Q26">
         <f t="shared" si="6"/>
-        <v>0.9072189046050535</v>
+        <v>0.93721890460505353</v>
       </c>
       <c r="R26">
         <f t="shared" si="7"/>
-        <v>0.93755547174320508</v>
+        <v>0.96845547174320512</v>
       </c>
       <c r="T26">
         <f t="shared" si="8"/>
-        <v>0.94021890460505353</v>
+        <v>0.97021890460505356</v>
       </c>
       <c r="U26">
         <f t="shared" si="9"/>
-        <v>0.93771203888135668</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96951203888135673</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="10"/>
+        <v>0.99721890460505358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.93721890460505353</v>
+        <v>0.96721890460505355</v>
       </c>
       <c r="B27">
         <v>0.999</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>0.96810945230252676</v>
+        <v>0.98310945230252678</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
@@ -3569,47 +3673,51 @@
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>0.93684671555900301</v>
+        <v>0.96654671555900307</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>1.0572189046050535</v>
+        <v>1.0872189046050535</v>
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
-        <v>0.94021890460505353</v>
+        <v>0.97021890460505356</v>
       </c>
       <c r="M27">
         <f t="shared" si="5"/>
-        <v>0.93673452651295241</v>
+        <v>0.96613452651295251</v>
       </c>
       <c r="Q27">
         <f t="shared" si="6"/>
-        <v>0.9072189046050535</v>
+        <v>0.93721890460505353</v>
       </c>
       <c r="R27">
         <f t="shared" si="7"/>
-        <v>0.93755547174320508</v>
+        <v>0.96845547174320512</v>
       </c>
       <c r="T27">
         <f t="shared" si="8"/>
-        <v>0.94021890460505353</v>
+        <v>0.97021890460505356</v>
       </c>
       <c r="U27">
         <f t="shared" si="9"/>
-        <v>0.93771203888135668</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96951203888135673</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="10"/>
+        <v>0.99721890460505358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.93843179501592966</v>
+        <v>0.96843179501592969</v>
       </c>
       <c r="B28">
         <v>0.999</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>0.96871589750796483</v>
+        <v>0.98371589750796484</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
@@ -3620,47 +3728,51 @@
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>0.93804747706577041</v>
+        <v>0.96774747706577036</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>1.0584317950159297</v>
+        <v>1.0884317950159297</v>
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
-        <v>0.94143179501592966</v>
+        <v>0.97143179501592969</v>
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
-        <v>0.93792315911561108</v>
+        <v>0.96732315911561106</v>
       </c>
       <c r="Q28">
         <f t="shared" si="6"/>
-        <v>0.90843179501592963</v>
+        <v>0.93843179501592966</v>
       </c>
       <c r="R28">
         <f t="shared" si="7"/>
-        <v>0.93880474886640752</v>
+        <v>0.96970474886640756</v>
       </c>
       <c r="T28">
         <f t="shared" si="8"/>
-        <v>0.94143179501592966</v>
+        <v>0.97143179501592969</v>
       </c>
       <c r="U28">
         <f t="shared" si="9"/>
-        <v>0.93899770271688543</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97079770271688548</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="10"/>
+        <v>0.99843179501592971</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.93975938312375762</v>
+        <v>0.96975938312375765</v>
       </c>
       <c r="B29">
         <v>0.999</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>0.96937969156187886</v>
+        <v>0.98437969156187877</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
@@ -3671,47 +3783,51 @@
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>0.93936178929252001</v>
+        <v>0.96906178929252007</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>1.0597593831237577</v>
+        <v>1.0897593831237575</v>
       </c>
       <c r="K29">
         <f t="shared" si="4"/>
-        <v>0.94275938312375762</v>
+        <v>0.97275938312375765</v>
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
-        <v>0.93922419546128244</v>
+        <v>0.96862419546128253</v>
       </c>
       <c r="Q29">
         <f t="shared" si="6"/>
-        <v>0.90975938312375759</v>
+        <v>0.93975938312375762</v>
       </c>
       <c r="R29">
         <f t="shared" si="7"/>
-        <v>0.94017216461747033</v>
+        <v>0.97107216461747037</v>
       </c>
       <c r="T29">
         <f t="shared" si="8"/>
-        <v>0.94275938312375762</v>
+        <v>0.97275938312375765</v>
       </c>
       <c r="U29">
         <f t="shared" si="9"/>
-        <v>0.94040494611118308</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97220494611118313</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="10"/>
+        <v>0.99975938312375767</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.93975938312375762</v>
+        <v>0.96975938312375765</v>
       </c>
       <c r="B30">
         <v>0.999</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>0.96937969156187886</v>
+        <v>0.98437969156187877</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
@@ -3722,47 +3838,51 @@
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>0.93936178929252001</v>
+        <v>0.96906178929252007</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>1.0597593831237577</v>
+        <v>1.0897593831237575</v>
       </c>
       <c r="K30">
         <f t="shared" si="4"/>
-        <v>0.94275938312375762</v>
+        <v>0.97275938312375765</v>
       </c>
       <c r="M30">
         <f t="shared" si="5"/>
-        <v>0.93922419546128244</v>
+        <v>0.96862419546128253</v>
       </c>
       <c r="Q30">
         <f t="shared" si="6"/>
-        <v>0.90975938312375759</v>
+        <v>0.93975938312375762</v>
       </c>
       <c r="R30">
         <f t="shared" si="7"/>
-        <v>0.94017216461747033</v>
+        <v>0.97107216461747037</v>
       </c>
       <c r="T30">
         <f t="shared" si="8"/>
-        <v>0.94275938312375762</v>
+        <v>0.97275938312375765</v>
       </c>
       <c r="U30">
         <f t="shared" si="9"/>
-        <v>0.94040494611118308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97220494611118313</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="10"/>
+        <v>0.99975938312375767</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.94108520941960461</v>
+        <v>0.97108520941960463</v>
       </c>
       <c r="B31">
         <v>0.999</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>0.9700426047098023</v>
+        <v>0.98504260470980232</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
@@ -3773,47 +3893,51 @@
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>0.94067435732540861</v>
+        <v>0.97037435732540855</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>1.0610852094196046</v>
+        <v>1.0910852094196046</v>
       </c>
       <c r="K31">
         <f t="shared" si="4"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="M31">
         <f t="shared" si="5"/>
-        <v>0.94052350523121253</v>
+        <v>0.96992350523121251</v>
       </c>
       <c r="Q31">
         <f t="shared" si="6"/>
-        <v>0.91108520941960458</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="R31">
         <f t="shared" si="7"/>
-        <v>0.94153776570219272</v>
+        <v>0.97243776570219276</v>
       </c>
       <c r="T31">
         <f t="shared" si="8"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="U31">
         <f t="shared" si="9"/>
-        <v>0.94181032198478087</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97361032198478092</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="10"/>
+        <v>1.0010852094196045</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.94108520941960461</v>
+        <v>0.97108520941960463</v>
       </c>
       <c r="B32">
         <v>0.999</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>0.9700426047098023</v>
+        <v>0.98504260470980232</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
@@ -3824,47 +3948,51 @@
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>0.94067435732540861</v>
+        <v>0.97037435732540855</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>1.0610852094196046</v>
+        <v>1.0910852094196046</v>
       </c>
       <c r="K32">
         <f t="shared" si="4"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="M32">
         <f t="shared" si="5"/>
-        <v>0.94052350523121253</v>
+        <v>0.96992350523121251</v>
       </c>
       <c r="Q32">
         <f t="shared" si="6"/>
-        <v>0.91108520941960458</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="R32">
         <f t="shared" si="7"/>
-        <v>0.94153776570219272</v>
+        <v>0.97243776570219276</v>
       </c>
       <c r="T32">
         <f t="shared" si="8"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="U32">
         <f t="shared" si="9"/>
-        <v>0.94181032198478087</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97361032198478092</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="10"/>
+        <v>1.0010852094196045</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.94108520941960461</v>
+        <v>0.97108520941960463</v>
       </c>
       <c r="B33">
         <v>0.999</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>0.9700426047098023</v>
+        <v>0.98504260470980232</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
@@ -3875,47 +4003,51 @@
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>0.94067435732540861</v>
+        <v>0.97037435732540855</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
-        <v>1.0610852094196046</v>
+        <v>1.0910852094196046</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="M33">
         <f t="shared" si="5"/>
-        <v>0.94052350523121253</v>
+        <v>0.96992350523121251</v>
       </c>
       <c r="Q33">
         <f t="shared" si="6"/>
-        <v>0.91108520941960458</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="R33">
         <f t="shared" si="7"/>
-        <v>0.94153776570219272</v>
+        <v>0.97243776570219276</v>
       </c>
       <c r="T33">
         <f t="shared" si="8"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="U33">
         <f t="shared" si="9"/>
-        <v>0.94181032198478087</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97361032198478092</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="10"/>
+        <v>1.0010852094196045</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.94108520941960461</v>
+        <v>0.97108520941960463</v>
       </c>
       <c r="B34">
         <v>0.999</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>0.9700426047098023</v>
+        <v>0.98504260470980232</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
@@ -3926,47 +4058,51 @@
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>0.94067435732540861</v>
+        <v>0.97037435732540855</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
-        <v>1.0610852094196046</v>
+        <v>1.0910852094196046</v>
       </c>
       <c r="K34">
         <f t="shared" si="4"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="M34">
         <f t="shared" si="5"/>
-        <v>0.94052350523121253</v>
+        <v>0.96992350523121251</v>
       </c>
       <c r="Q34">
         <f t="shared" si="6"/>
-        <v>0.91108520941960458</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="R34">
         <f t="shared" si="7"/>
-        <v>0.94153776570219272</v>
+        <v>0.97243776570219276</v>
       </c>
       <c r="T34">
         <f t="shared" si="8"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="U34">
         <f t="shared" si="9"/>
-        <v>0.94181032198478087</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97361032198478092</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="10"/>
+        <v>1.0010852094196045</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.94108520941960461</v>
+        <v>0.97108520941960463</v>
       </c>
       <c r="B35">
         <v>0.999</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>0.9700426047098023</v>
+        <v>0.98504260470980232</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
@@ -3977,47 +4113,51 @@
       </c>
       <c r="H35">
         <f t="shared" si="2"/>
-        <v>0.94067435732540861</v>
+        <v>0.97037435732540855</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
-        <v>1.0610852094196046</v>
+        <v>1.0910852094196046</v>
       </c>
       <c r="K35">
         <f t="shared" si="4"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="M35">
         <f t="shared" si="5"/>
-        <v>0.94052350523121253</v>
+        <v>0.96992350523121251</v>
       </c>
       <c r="Q35">
         <f t="shared" si="6"/>
-        <v>0.91108520941960458</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="R35">
         <f t="shared" si="7"/>
-        <v>0.94153776570219272</v>
+        <v>0.97243776570219276</v>
       </c>
       <c r="T35">
         <f t="shared" si="8"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="U35">
         <f t="shared" si="9"/>
-        <v>0.94181032198478087</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97361032198478092</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="10"/>
+        <v>1.0010852094196045</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.94108520941960461</v>
+        <v>0.97108520941960463</v>
       </c>
       <c r="B36">
         <v>0.999</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>0.9700426047098023</v>
+        <v>0.98504260470980232</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
@@ -4028,47 +4168,51 @@
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>0.94067435732540861</v>
+        <v>0.97037435732540855</v>
       </c>
       <c r="I36">
         <f t="shared" si="3"/>
-        <v>1.0610852094196046</v>
+        <v>1.0910852094196046</v>
       </c>
       <c r="K36">
         <f t="shared" si="4"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="M36">
         <f t="shared" si="5"/>
-        <v>0.94052350523121253</v>
+        <v>0.96992350523121251</v>
       </c>
       <c r="Q36">
         <f t="shared" si="6"/>
-        <v>0.91108520941960458</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="R36">
         <f t="shared" si="7"/>
-        <v>0.94153776570219272</v>
+        <v>0.97243776570219276</v>
       </c>
       <c r="T36">
         <f t="shared" si="8"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="U36">
         <f t="shared" si="9"/>
-        <v>0.94181032198478087</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97361032198478092</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="10"/>
+        <v>1.0010852094196045</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.94108520941960461</v>
+        <v>0.97108520941960463</v>
       </c>
       <c r="B37">
         <v>0.999</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>0.9700426047098023</v>
+        <v>0.98504260470980232</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
@@ -4079,47 +4223,51 @@
       </c>
       <c r="H37">
         <f t="shared" si="2"/>
-        <v>0.94067435732540861</v>
+        <v>0.97037435732540855</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
-        <v>1.0610852094196046</v>
+        <v>1.0910852094196046</v>
       </c>
       <c r="K37">
         <f t="shared" si="4"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="M37">
         <f t="shared" si="5"/>
-        <v>0.94052350523121253</v>
+        <v>0.96992350523121251</v>
       </c>
       <c r="Q37">
         <f t="shared" si="6"/>
-        <v>0.91108520941960458</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="R37">
         <f t="shared" si="7"/>
-        <v>0.94153776570219272</v>
+        <v>0.97243776570219276</v>
       </c>
       <c r="T37">
         <f t="shared" si="8"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="U37">
         <f t="shared" si="9"/>
-        <v>0.94181032198478087</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97361032198478092</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="10"/>
+        <v>1.0010852094196045</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.94108520941960461</v>
+        <v>0.97108520941960463</v>
       </c>
       <c r="B38">
         <v>0.999</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>0.9700426047098023</v>
+        <v>0.98504260470980232</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
@@ -4130,47 +4278,51 @@
       </c>
       <c r="H38">
         <f t="shared" si="2"/>
-        <v>0.94067435732540861</v>
+        <v>0.97037435732540855</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
-        <v>1.0610852094196046</v>
+        <v>1.0910852094196046</v>
       </c>
       <c r="K38">
         <f t="shared" si="4"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="M38">
         <f t="shared" si="5"/>
-        <v>0.94052350523121253</v>
+        <v>0.96992350523121251</v>
       </c>
       <c r="Q38">
         <f t="shared" si="6"/>
-        <v>0.91108520941960458</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="R38">
         <f t="shared" si="7"/>
-        <v>0.94153776570219272</v>
+        <v>0.97243776570219276</v>
       </c>
       <c r="T38">
         <f t="shared" si="8"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="U38">
         <f t="shared" si="9"/>
-        <v>0.94181032198478087</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97361032198478092</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="10"/>
+        <v>1.0010852094196045</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.94108520941960461</v>
+        <v>0.97108520941960463</v>
       </c>
       <c r="B39">
         <v>0.999</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>0.9700426047098023</v>
+        <v>0.98504260470980232</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
@@ -4181,47 +4333,51 @@
       </c>
       <c r="H39">
         <f t="shared" si="2"/>
-        <v>0.94067435732540861</v>
+        <v>0.97037435732540855</v>
       </c>
       <c r="I39">
         <f t="shared" si="3"/>
-        <v>1.0610852094196046</v>
+        <v>1.0910852094196046</v>
       </c>
       <c r="K39">
         <f t="shared" si="4"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="M39">
         <f t="shared" si="5"/>
-        <v>0.94052350523121253</v>
+        <v>0.96992350523121251</v>
       </c>
       <c r="Q39">
         <f t="shared" si="6"/>
-        <v>0.91108520941960458</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="R39">
         <f t="shared" si="7"/>
-        <v>0.94153776570219272</v>
+        <v>0.97243776570219276</v>
       </c>
       <c r="T39">
         <f t="shared" si="8"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="U39">
         <f t="shared" si="9"/>
-        <v>0.94181032198478087</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97361032198478092</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="10"/>
+        <v>1.0010852094196045</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.94108520941960461</v>
+        <v>0.97108520941960463</v>
       </c>
       <c r="B40">
         <v>0.999</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>0.9700426047098023</v>
+        <v>0.98504260470980232</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
@@ -4232,47 +4388,51 @@
       </c>
       <c r="H40">
         <f t="shared" si="2"/>
-        <v>0.94067435732540861</v>
+        <v>0.97037435732540855</v>
       </c>
       <c r="I40">
         <f t="shared" si="3"/>
-        <v>1.0610852094196046</v>
+        <v>1.0910852094196046</v>
       </c>
       <c r="K40">
         <f t="shared" si="4"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="M40">
         <f t="shared" si="5"/>
-        <v>0.94052350523121253</v>
+        <v>0.96992350523121251</v>
       </c>
       <c r="Q40">
         <f t="shared" si="6"/>
-        <v>0.91108520941960458</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="R40">
         <f t="shared" si="7"/>
-        <v>0.94153776570219272</v>
+        <v>0.97243776570219276</v>
       </c>
       <c r="T40">
         <f t="shared" si="8"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="U40">
         <f t="shared" si="9"/>
-        <v>0.94181032198478087</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97361032198478092</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="10"/>
+        <v>1.0010852094196045</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.94108520941960461</v>
+        <v>0.97108520941960463</v>
       </c>
       <c r="B41">
         <v>0.999</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>0.9700426047098023</v>
+        <v>0.98504260470980232</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
@@ -4283,47 +4443,51 @@
       </c>
       <c r="H41">
         <f t="shared" si="2"/>
-        <v>0.94067435732540861</v>
+        <v>0.97037435732540855</v>
       </c>
       <c r="I41">
         <f t="shared" si="3"/>
-        <v>1.0610852094196046</v>
+        <v>1.0910852094196046</v>
       </c>
       <c r="K41">
         <f t="shared" si="4"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="M41">
         <f t="shared" si="5"/>
-        <v>0.94052350523121253</v>
+        <v>0.96992350523121251</v>
       </c>
       <c r="Q41">
         <f t="shared" si="6"/>
-        <v>0.91108520941960458</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="R41">
         <f t="shared" si="7"/>
-        <v>0.94153776570219272</v>
+        <v>0.97243776570219276</v>
       </c>
       <c r="T41">
         <f t="shared" si="8"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="U41">
         <f t="shared" si="9"/>
-        <v>0.94181032198478087</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97361032198478092</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="10"/>
+        <v>1.0010852094196045</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.94108520941960461</v>
+        <v>0.97108520941960463</v>
       </c>
       <c r="B42">
         <v>0.999</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>0.9700426047098023</v>
+        <v>0.98504260470980232</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
@@ -4334,47 +4498,51 @@
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
-        <v>0.94067435732540861</v>
+        <v>0.97037435732540855</v>
       </c>
       <c r="I42">
         <f t="shared" si="3"/>
-        <v>1.0610852094196046</v>
+        <v>1.0910852094196046</v>
       </c>
       <c r="K42">
         <f t="shared" si="4"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="M42">
         <f t="shared" si="5"/>
-        <v>0.94052350523121253</v>
+        <v>0.96992350523121251</v>
       </c>
       <c r="Q42">
         <f t="shared" si="6"/>
-        <v>0.91108520941960458</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="R42">
         <f t="shared" si="7"/>
-        <v>0.94153776570219272</v>
+        <v>0.97243776570219276</v>
       </c>
       <c r="T42">
         <f t="shared" si="8"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="U42">
         <f t="shared" si="9"/>
-        <v>0.94181032198478087</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97361032198478092</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="10"/>
+        <v>1.0010852094196045</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.94108520941960461</v>
+        <v>0.97108520941960463</v>
       </c>
       <c r="B43">
         <v>0.999</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>0.9700426047098023</v>
+        <v>0.98504260470980232</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
@@ -4385,47 +4553,51 @@
       </c>
       <c r="H43">
         <f t="shared" si="2"/>
-        <v>0.94067435732540861</v>
+        <v>0.97037435732540855</v>
       </c>
       <c r="I43">
         <f t="shared" si="3"/>
-        <v>1.0610852094196046</v>
+        <v>1.0910852094196046</v>
       </c>
       <c r="K43">
         <f t="shared" si="4"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="M43">
         <f t="shared" si="5"/>
-        <v>0.94052350523121253</v>
+        <v>0.96992350523121251</v>
       </c>
       <c r="Q43">
         <f t="shared" si="6"/>
-        <v>0.91108520941960458</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="R43">
         <f t="shared" si="7"/>
-        <v>0.94153776570219272</v>
+        <v>0.97243776570219276</v>
       </c>
       <c r="T43">
         <f t="shared" si="8"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="U43">
         <f t="shared" si="9"/>
-        <v>0.94181032198478087</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97361032198478092</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="10"/>
+        <v>1.0010852094196045</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.94108520941960461</v>
+        <v>0.97108520941960463</v>
       </c>
       <c r="B44">
         <v>0.999</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>0.9700426047098023</v>
+        <v>0.98504260470980232</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
@@ -4436,47 +4608,51 @@
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
-        <v>0.94067435732540861</v>
+        <v>0.97037435732540855</v>
       </c>
       <c r="I44">
         <f t="shared" si="3"/>
-        <v>1.0610852094196046</v>
+        <v>1.0910852094196046</v>
       </c>
       <c r="K44">
         <f t="shared" si="4"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="M44">
         <f t="shared" si="5"/>
-        <v>0.94052350523121253</v>
+        <v>0.96992350523121251</v>
       </c>
       <c r="Q44">
         <f t="shared" si="6"/>
-        <v>0.91108520941960458</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="R44">
         <f t="shared" si="7"/>
-        <v>0.94153776570219272</v>
+        <v>0.97243776570219276</v>
       </c>
       <c r="T44">
         <f t="shared" si="8"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="U44">
         <f t="shared" si="9"/>
-        <v>0.94181032198478087</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97361032198478092</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="10"/>
+        <v>1.0010852094196045</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.94108520941960461</v>
+        <v>0.97108520941960463</v>
       </c>
       <c r="B45">
         <v>0.999</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>0.9700426047098023</v>
+        <v>0.98504260470980232</v>
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
@@ -4487,47 +4663,51 @@
       </c>
       <c r="H45">
         <f t="shared" si="2"/>
-        <v>0.94067435732540861</v>
+        <v>0.97037435732540855</v>
       </c>
       <c r="I45">
         <f t="shared" si="3"/>
-        <v>1.0610852094196046</v>
+        <v>1.0910852094196046</v>
       </c>
       <c r="K45">
         <f t="shared" si="4"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="M45">
         <f t="shared" si="5"/>
-        <v>0.94052350523121253</v>
+        <v>0.96992350523121251</v>
       </c>
       <c r="Q45">
         <f t="shared" si="6"/>
-        <v>0.91108520941960458</v>
+        <v>0.94108520941960461</v>
       </c>
       <c r="R45">
         <f t="shared" si="7"/>
-        <v>0.94153776570219272</v>
+        <v>0.97243776570219276</v>
       </c>
       <c r="T45">
         <f t="shared" si="8"/>
-        <v>0.94408520941960461</v>
+        <v>0.97408520941960464</v>
       </c>
       <c r="U45">
         <f t="shared" si="9"/>
-        <v>0.94181032198478087</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97361032198478092</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="10"/>
+        <v>1.0010852094196045</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.94240882717245089</v>
+        <v>0.97240882717245092</v>
       </c>
       <c r="B46">
         <v>0.999</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>0.9707044135862255</v>
+        <v>0.9857044135862254</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
@@ -4538,47 +4718,51 @@
       </c>
       <c r="H46">
         <f t="shared" si="2"/>
-        <v>0.94198473890072643</v>
+        <v>0.97168473890072637</v>
       </c>
       <c r="I46">
         <f t="shared" si="3"/>
-        <v>1.062408827172451</v>
+        <v>1.0924088271724508</v>
       </c>
       <c r="K46">
         <f t="shared" si="4"/>
-        <v>0.94540882717245089</v>
+        <v>0.97540882717245092</v>
       </c>
       <c r="M46">
         <f t="shared" si="5"/>
-        <v>0.94182065062900189</v>
+        <v>0.97122065062900187</v>
       </c>
       <c r="Q46">
         <f t="shared" si="6"/>
-        <v>0.91240882717245086</v>
+        <v>0.94240882717245089</v>
       </c>
       <c r="R46">
         <f t="shared" si="7"/>
-        <v>0.9429010919876244</v>
+        <v>0.97380109198762443</v>
       </c>
       <c r="T46">
         <f t="shared" si="8"/>
-        <v>0.94540882717245089</v>
+        <v>0.97540882717245092</v>
       </c>
       <c r="U46">
         <f t="shared" si="9"/>
-        <v>0.94321335680279794</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97501335680279799</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="10"/>
+        <v>1.0024088271724509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.94240882717245089</v>
+        <v>0.97240882717245092</v>
       </c>
       <c r="B47">
         <v>0.999</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>0.9707044135862255</v>
+        <v>0.9857044135862254</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
@@ -4589,47 +4773,51 @@
       </c>
       <c r="H47">
         <f t="shared" si="2"/>
-        <v>0.94198473890072643</v>
+        <v>0.97168473890072637</v>
       </c>
       <c r="I47">
         <f t="shared" si="3"/>
-        <v>1.062408827172451</v>
+        <v>1.0924088271724508</v>
       </c>
       <c r="K47">
         <f t="shared" si="4"/>
-        <v>0.94540882717245089</v>
+        <v>0.97540882717245092</v>
       </c>
       <c r="M47">
         <f t="shared" si="5"/>
-        <v>0.94182065062900189</v>
+        <v>0.97122065062900187</v>
       </c>
       <c r="Q47">
         <f t="shared" si="6"/>
-        <v>0.91240882717245086</v>
+        <v>0.94240882717245089</v>
       </c>
       <c r="R47">
         <f t="shared" si="7"/>
-        <v>0.9429010919876244</v>
+        <v>0.97380109198762443</v>
       </c>
       <c r="T47">
         <f t="shared" si="8"/>
-        <v>0.94540882717245089</v>
+        <v>0.97540882717245092</v>
       </c>
       <c r="U47">
         <f t="shared" si="9"/>
-        <v>0.94321335680279794</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97501335680279799</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="10"/>
+        <v>1.0024088271724509</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.94240882717245089</v>
+        <v>0.97240882717245092</v>
       </c>
       <c r="B48">
         <v>0.999</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>0.9707044135862255</v>
+        <v>0.9857044135862254</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
@@ -4640,47 +4828,51 @@
       </c>
       <c r="H48">
         <f t="shared" si="2"/>
-        <v>0.94198473890072643</v>
+        <v>0.97168473890072637</v>
       </c>
       <c r="I48">
         <f t="shared" si="3"/>
-        <v>1.062408827172451</v>
+        <v>1.0924088271724508</v>
       </c>
       <c r="K48">
         <f t="shared" si="4"/>
-        <v>0.94540882717245089</v>
+        <v>0.97540882717245092</v>
       </c>
       <c r="M48">
         <f t="shared" si="5"/>
-        <v>0.94182065062900189</v>
+        <v>0.97122065062900187</v>
       </c>
       <c r="Q48">
         <f t="shared" si="6"/>
-        <v>0.91240882717245086</v>
+        <v>0.94240882717245089</v>
       </c>
       <c r="R48">
         <f t="shared" si="7"/>
-        <v>0.9429010919876244</v>
+        <v>0.97380109198762443</v>
       </c>
       <c r="T48">
         <f t="shared" si="8"/>
-        <v>0.94540882717245089</v>
+        <v>0.97540882717245092</v>
       </c>
       <c r="U48">
         <f t="shared" si="9"/>
-        <v>0.94321335680279794</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97501335680279799</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="10"/>
+        <v>1.0024088271724509</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.94256742990141085</v>
+        <v>0.97256742990141087</v>
       </c>
       <c r="B49">
         <v>0.999</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>0.97078371495070548</v>
+        <v>0.98578371495070538</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
@@ -4691,47 +4883,51 @@
       </c>
       <c r="H49">
         <f t="shared" si="2"/>
-        <v>0.94214175560239677</v>
+        <v>0.97184175560239672</v>
       </c>
       <c r="I49">
         <f t="shared" si="3"/>
-        <v>1.062567429901411</v>
+        <v>1.0925674299014108</v>
       </c>
       <c r="K49">
         <f t="shared" si="4"/>
-        <v>0.94556742990141085</v>
+        <v>0.97556742990141088</v>
       </c>
       <c r="M49">
         <f t="shared" si="5"/>
-        <v>0.94197608130338262</v>
+        <v>0.97137608130338271</v>
       </c>
       <c r="Q49">
         <f t="shared" si="6"/>
-        <v>0.91256742990141082</v>
+        <v>0.94256742990141085</v>
       </c>
       <c r="R49">
         <f t="shared" si="7"/>
-        <v>0.94306445279845319</v>
+        <v>0.97396445279845323</v>
       </c>
       <c r="T49">
         <f t="shared" si="8"/>
-        <v>0.94556742990141085</v>
+        <v>0.97556742990141088</v>
       </c>
       <c r="U49">
         <f t="shared" si="9"/>
-        <v>0.94338147569549546</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.97518147569549551</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="10"/>
+        <v>1.0025674299014109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.94320481197504014</v>
+        <v>0.97320481197504016</v>
       </c>
       <c r="B50">
         <v>0.999</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>0.97110240598752007</v>
+        <v>0.98610240598752008</v>
       </c>
       <c r="E50">
         <f>B50-0.14</f>
@@ -4742,35 +4938,39 @@
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
-        <v>0.94277276385528974</v>
+        <v>0.9724727638552898</v>
       </c>
       <c r="I50">
         <f t="shared" si="3"/>
-        <v>1.0632048119750401</v>
+        <v>1.0932048119750402</v>
       </c>
       <c r="K50">
         <f t="shared" si="4"/>
-        <v>0.94620481197504014</v>
+        <v>0.97620481197504017</v>
       </c>
       <c r="M50">
         <f t="shared" si="5"/>
-        <v>0.94260071573553939</v>
+        <v>0.97200071573553937</v>
       </c>
       <c r="Q50">
         <f t="shared" si="6"/>
-        <v>0.91320481197504011</v>
+        <v>0.94320481197504014</v>
       </c>
       <c r="R50">
         <f t="shared" si="7"/>
-        <v>0.94372095633429132</v>
+        <v>0.97462095633429136</v>
       </c>
       <c r="T50">
         <f t="shared" si="8"/>
-        <v>0.94620481197504014</v>
+        <v>0.97620481197504017</v>
       </c>
       <c r="U50">
         <f>((A50-0.929)*1.06)+0.929</f>
-        <v>0.94405710069354254</v>
+        <v>0.97585710069354259</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="10"/>
+        <v>1.0032048119750401</v>
       </c>
     </row>
   </sheetData>
